--- a/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
+++ b/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="BOM_Base" localSheetId="0">'Sheet1 (2)'!$A$2:$G$36</definedName>
-    <definedName name="HP03S_HIH6130" localSheetId="0">'Sheet1 (2)'!$A$80:$G$93</definedName>
-    <definedName name="MRF24_Module" localSheetId="0">'Sheet1 (2)'!$A$41:$G$47</definedName>
-    <definedName name="VPower_feed" localSheetId="0">'Sheet1 (2)'!$A$52:$G$55</definedName>
-    <definedName name="Wind_enc" localSheetId="0">'Sheet1 (2)'!$A$65:$G$69</definedName>
-    <definedName name="Wind_Tree_connect" localSheetId="0">'Sheet1 (2)'!$A$60:$G$61</definedName>
+    <definedName name="BOM_Base" localSheetId="0">'Sheet1 (2)'!$A$2:$G$37</definedName>
+    <definedName name="HP03S_HIH6130" localSheetId="0">'Sheet1 (2)'!$A$81:$G$94</definedName>
+    <definedName name="MRF24_Module" localSheetId="0">'Sheet1 (2)'!$A$42:$G$48</definedName>
+    <definedName name="VPower_feed" localSheetId="0">'Sheet1 (2)'!$A$53:$G$56</definedName>
+    <definedName name="Wind_enc" localSheetId="0">'Sheet1 (2)'!$A$66:$G$70</definedName>
+    <definedName name="Wind_Tree_connect" localSheetId="0">'Sheet1 (2)'!$A$61:$G$62</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="288">
   <si>
     <t>Qty</t>
   </si>
@@ -146,9 +146,6 @@
     <t>C7</t>
   </si>
   <si>
-    <t>SMC_A</t>
-  </si>
-  <si>
     <t>120o</t>
   </si>
   <si>
@@ -497,27 +494,12 @@
     <t>FUT: 4.09@1</t>
   </si>
   <si>
-    <t>PWR distribution</t>
-  </si>
-  <si>
-    <t>Wind  tree distributor</t>
-  </si>
-  <si>
     <t>497-1496-1-ND</t>
   </si>
   <si>
     <t>EEprom 512kbit</t>
   </si>
   <si>
-    <t>Wind Direction Encoder</t>
-  </si>
-  <si>
-    <t>Wind Speed Encoder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barometer &amp; Hygrometer </t>
-  </si>
-  <si>
     <t>1X05</t>
   </si>
   <si>
@@ -527,9 +509,6 @@
     <t>WM2003-ND</t>
   </si>
   <si>
-    <t>WiFi Interface</t>
-  </si>
-  <si>
     <t>CONN HOUS 3POS .100 W/RAMP/RIB</t>
   </si>
   <si>
@@ -596,12 +575,6 @@
     <t>Male header 1x10</t>
   </si>
   <si>
-    <t>Male header 1x4</t>
-  </si>
-  <si>
-    <t>Female header 2x5</t>
-  </si>
-  <si>
     <t>FAN 12V/5V, 92mmx92mm</t>
   </si>
   <si>
@@ -719,12 +692,6 @@
     <t>Frys</t>
   </si>
   <si>
-    <t>FAN, SUN</t>
-  </si>
-  <si>
-    <t>609-3248-ND</t>
-  </si>
-  <si>
     <t>Male header 1x3</t>
   </si>
   <si>
@@ -764,9 +731,6 @@
     <t>311-8.2KGRDKR-ND</t>
   </si>
   <si>
-    <t>R12,R13,R14,R15,R23,R24</t>
-  </si>
-  <si>
     <t>311-4.7KGRDKR-ND</t>
   </si>
   <si>
@@ -893,9 +857,6 @@
     <t xml:space="preserve"> MCU 256K</t>
   </si>
   <si>
-    <t>CAPACITOR, Polarized for prog cpc2104</t>
-  </si>
-  <si>
     <t>VOLTAGE REGULATOR, LDO 3.3v</t>
   </si>
   <si>
@@ -938,25 +899,82 @@
     <t>Post Enclosure , cabling, power supply</t>
   </si>
   <si>
-    <t>Base Board</t>
-  </si>
-  <si>
     <t>BatchPCB $16 each</t>
   </si>
   <si>
-    <t>Gold Phoneix  100 @ $1.10</t>
-  </si>
-  <si>
     <t>BatchPCB $3 each</t>
   </si>
   <si>
     <t>Gold Phoenix 100 @ $1.28</t>
   </si>
   <si>
-    <t>Gold Phoneix  50 @ $3.95</t>
-  </si>
-  <si>
     <t>tax</t>
+  </si>
+  <si>
+    <t>Barometer &amp; Hygrometer PCB</t>
+  </si>
+  <si>
+    <t>Wind Speed Encoder PCB</t>
+  </si>
+  <si>
+    <t>Wind Direction Encoder PCB</t>
+  </si>
+  <si>
+    <t>Wind  tree distributor PCB</t>
+  </si>
+  <si>
+    <t>Power feed &amp; Sun, Rain input PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiFi Interface Module &amp; PCB </t>
+  </si>
+  <si>
+    <t>Station Base Board PCB</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R12,R14,R15,R23,R24</t>
+  </si>
+  <si>
+    <t>311-2.2KGRDKR-ND</t>
+  </si>
+  <si>
+    <t>FAN, SUN,+5V</t>
+  </si>
+  <si>
+    <t>Gold Phoenix  50 @ $3.95</t>
+  </si>
+  <si>
+    <t>Gold Phoenix  100 @ $1.10</t>
+  </si>
+  <si>
+    <t>Male header 1x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 609-3462-ND</t>
+  </si>
+  <si>
+    <t>Female header 2x5, not loaded, solder direct</t>
+  </si>
+  <si>
+    <t>Shottky Diode</t>
+  </si>
+  <si>
+    <t>MBR0520</t>
+  </si>
+  <si>
+    <t>SOD123</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>MBR0520TPMSCT-ND</t>
   </si>
 </sst>
 </file>
@@ -966,7 +984,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,13 +1035,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1099,10 +1110,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1422,10 +1433,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N133"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1444,7 +1458,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B1" s="11"/>
     </row>
@@ -1465,22 +1479,22 @@
         <v>3</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1488,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1497,10 +1511,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1">
         <v>0.1</v>
@@ -1529,19 +1543,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G4" s="1">
         <v>1.91</v>
@@ -1550,11 +1564,11 @@
         <v>15.95</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L37" si="0">A4*G4</f>
+        <f t="shared" ref="L4:L38" si="0">A4*G4</f>
         <v>1.91</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" ref="M4:M37" si="1">A4*H4</f>
+        <f t="shared" ref="M4:M38" si="1">A4*H4</f>
         <v>15.95</v>
       </c>
       <c r="N4" s="8"/>
@@ -1564,19 +1578,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G5" s="1">
         <v>0.56000000000000005</v>
@@ -1600,19 +1614,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="1">
         <v>0.13</v>
@@ -1635,19 +1649,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1">
         <v>0.1</v>
@@ -1670,19 +1684,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="1">
         <v>0.1</v>
@@ -1708,19 +1722,19 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1">
         <v>0.1</v>
@@ -1746,19 +1760,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="1">
         <v>0.1</v>
@@ -1784,19 +1798,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1">
         <v>0.1</v>
@@ -1822,19 +1836,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G12" s="1">
         <v>0.1</v>
@@ -1857,22 +1871,22 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G13" s="1">
         <v>0.1</v>
@@ -1885,11 +1899,11 @@
       </c>
       <c r="L13" s="5">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.5</v>
       </c>
       <c r="M13" s="7">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>0.5</v>
       </c>
       <c r="N13" s="8"/>
     </row>
@@ -1898,19 +1912,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G14" s="1">
         <v>0.1</v>
@@ -1936,19 +1950,19 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1">
         <v>0.1</v>
@@ -1974,19 +1988,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G16" s="1">
         <v>1.57</v>
@@ -2009,19 +2023,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G17" s="1">
         <v>0.68</v>
@@ -2041,36 +2055,36 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>260</v>
+        <v>1</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>276</v>
       </c>
       <c r="G18" s="1">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="H18" s="1">
-        <v>2.94</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="8"/>
     </row>
@@ -2079,19 +2093,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="1">
         <v>0.42</v>
@@ -2109,120 +2123,126 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="G20" s="1">
-        <v>1.91</v>
+        <v>0.42</v>
       </c>
       <c r="H20" s="1">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" si="0"/>
-        <v>1.91</v>
+        <v>0.42</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="H21" s="1">
         <v>1.8</v>
-      </c>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" t="s">
-        <v>202</v>
-      </c>
-      <c r="F21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2.8</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>1.91</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="F22" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="G22" s="1">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="H22" s="1">
-        <v>1.46</v>
+        <v>2.8</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M22" s="7">
         <f t="shared" si="1"/>
-        <v>2.92</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
       </c>
       <c r="G23" s="1">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="H23" s="1">
-        <v>3.05</v>
+        <v>1.46</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="0"/>
@@ -2230,71 +2250,65 @@
       </c>
       <c r="M23" s="7">
         <f t="shared" si="1"/>
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
-      </c>
-      <c r="F24" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="G24" s="1">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="H24" s="1">
-        <v>4.6100000000000003</v>
+        <v>3.05</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="0"/>
-        <v>1.32</v>
+        <v>0.32</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="1"/>
-        <v>13.830000000000002</v>
+        <v>3.05</v>
       </c>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G25" s="1">
-        <v>0.21</v>
+        <v>0.44</v>
       </c>
       <c r="H25" s="1">
-        <v>1.92</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="0"/>
-        <v>0.21</v>
+        <v>1.32</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="1"/>
-        <v>1.92</v>
+        <v>13.830000000000002</v>
       </c>
       <c r="N25" s="8"/>
     </row>
@@ -2303,68 +2317,68 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>281</v>
       </c>
       <c r="G26" s="1">
-        <v>0.87</v>
+        <v>0.21</v>
       </c>
       <c r="H26" s="1">
-        <v>7.21</v>
+        <v>1.92</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="0"/>
-        <v>0.87</v>
+        <v>0.21</v>
       </c>
       <c r="M26" s="7">
         <f t="shared" si="1"/>
-        <v>7.21</v>
+        <v>1.92</v>
       </c>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F27" t="s">
-        <v>174</v>
+        <v>214</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G27" s="1">
-        <v>0.43</v>
+        <v>0.87</v>
       </c>
       <c r="H27" s="1">
-        <v>4.2300000000000004</v>
+        <v>7.21</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="0"/>
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="M27" s="7">
         <f t="shared" si="1"/>
-        <v>4.2300000000000004</v>
+        <v>0</v>
       </c>
       <c r="N27" s="8"/>
     </row>
@@ -2373,33 +2387,33 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>111</v>
+        <v>213</v>
+      </c>
+      <c r="F28" t="s">
+        <v>165</v>
       </c>
       <c r="G28" s="1">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="H28" s="1">
-        <v>6.14</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="1"/>
-        <v>6.14</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="N28" s="8"/>
     </row>
@@ -2408,109 +2422,109 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G29" s="1">
-        <v>5.2</v>
+        <v>0.68</v>
       </c>
       <c r="H29" s="1">
-        <v>38.9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>126</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>127</v>
+        <v>6.14</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="0"/>
-        <v>5.2</v>
+        <v>0.68</v>
       </c>
       <c r="M29" s="7">
         <f t="shared" si="1"/>
-        <v>38.9</v>
+        <v>6.14</v>
       </c>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
         <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G30" s="1">
-        <v>7.42</v>
+        <v>5.2</v>
       </c>
       <c r="H30" s="1">
-        <v>58.4</v>
+        <v>38.9</v>
       </c>
       <c r="J30" t="s">
         <v>125</v>
       </c>
+      <c r="K30" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G31" s="1">
-        <v>2.6</v>
+        <v>7.42</v>
       </c>
       <c r="H31" s="1">
-        <v>18.600000000000001</v>
+        <v>58.4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>124</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="1"/>
-        <v>18.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="N31" s="8"/>
     </row>
@@ -2519,118 +2533,118 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G32" s="1">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H32" s="1">
-        <v>7.47</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="1"/>
-        <v>7.47</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="G33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H33" s="1">
-        <v>3.74</v>
+        <v>7.47</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="1"/>
-        <v>11.22</v>
+        <v>7.47</v>
       </c>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G34" s="1">
-        <v>0.09</v>
+        <v>0.4</v>
       </c>
       <c r="H34" s="1">
-        <v>0.78</v>
+        <v>3.74</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" si="1"/>
-        <v>0.78</v>
+        <v>11.22</v>
       </c>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
         <v>50</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>115</v>
@@ -2639,15 +2653,15 @@
         <v>0.09</v>
       </c>
       <c r="H35" s="1">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" si="1"/>
-        <v>1.48</v>
+        <v>0.78</v>
       </c>
       <c r="N35" s="8"/>
     </row>
@@ -2656,16 +2670,16 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>114</v>
@@ -2674,7 +2688,7 @@
         <v>0.09</v>
       </c>
       <c r="H36" s="1">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="0"/>
@@ -2682,161 +2696,158 @@
       </c>
       <c r="M36" s="7">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>280</v>
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>276</v>
+        <v>113</v>
       </c>
       <c r="G37" s="1">
-        <v>16</v>
+        <v>0.09</v>
       </c>
       <c r="H37" s="1">
-        <v>160</v>
+        <v>0.78</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0.18</v>
       </c>
       <c r="M37" s="7">
         <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" s="1">
+        <v>16</v>
+      </c>
+      <c r="H38" s="1">
         <v>160</v>
       </c>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="K38" s="7">
-        <f>SUM(M3:M38)/10</f>
-        <v>34.646000000000001</v>
-      </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="7"/>
+      <c r="L38" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M38" s="7">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="K39" s="5">
-        <f>SUM(L3:L38)</f>
-        <v>42.67</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="K39" s="7">
+        <f>SUM(M3:M39)/10</f>
+        <v>34.505000000000003</v>
+      </c>
+      <c r="L39" s="5"/>
+      <c r="M39" s="7"/>
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="L40"/>
+      <c r="K40" s="5">
+        <f>SUM(L3:L39)</f>
+        <v>42.52</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" t="s">
+      <c r="A41" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="I42" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L42" s="5">
-        <f t="shared" ref="L42:L48" si="2">A42*G42</f>
-        <v>0.2</v>
-      </c>
-      <c r="M42" s="7">
-        <f t="shared" ref="M42:M48" si="3">A42*H42</f>
-        <v>0.96</v>
-      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="7"/>
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G43" s="1">
         <v>0.1</v>
       </c>
       <c r="H43" s="1">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
       <c r="I43" s="1">
-        <v>0.48</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" ref="L43:L49" si="2">A43*G43</f>
+        <v>0.2</v>
       </c>
       <c r="M43" s="7">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" ref="M43:M49" si="3">A43*H43</f>
+        <v>0.96</v>
       </c>
       <c r="N43" s="8"/>
     </row>
@@ -2845,19 +2856,19 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G44" s="1">
         <v>0.1</v>
@@ -2883,33 +2894,36 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G45" s="1">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="H45" s="1">
-        <v>2.94</v>
+        <v>0.1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.48</v>
       </c>
       <c r="L45" s="5">
         <f t="shared" si="2"/>
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="M45" s="7">
         <f t="shared" si="3"/>
-        <v>2.94</v>
+        <v>0.1</v>
       </c>
       <c r="N45" s="8"/>
     </row>
@@ -2918,33 +2932,33 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G46" s="1">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="H46" s="1">
-        <v>3.56</v>
+        <v>2.94</v>
       </c>
       <c r="L46" s="5">
         <f t="shared" si="2"/>
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="M46" s="7">
         <f t="shared" si="3"/>
-        <v>3.56</v>
+        <v>2.94</v>
       </c>
       <c r="N46" s="8"/>
     </row>
@@ -2953,39 +2967,33 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="G47" s="1">
-        <v>26.1</v>
+        <v>0.38</v>
       </c>
       <c r="H47" s="1">
-        <v>192</v>
-      </c>
-      <c r="J47" t="s">
-        <v>121</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>123</v>
+        <v>3.56</v>
       </c>
       <c r="L47" s="5">
         <f t="shared" si="2"/>
-        <v>26.1</v>
+        <v>0.38</v>
       </c>
       <c r="M47" s="7">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>3.56</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -2994,285 +3002,291 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="G48" s="1">
-        <v>3</v>
+        <v>26.1</v>
       </c>
       <c r="H48" s="1">
-        <v>30</v>
+        <v>192</v>
+      </c>
+      <c r="J48" t="s">
+        <v>120</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="L48" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>26.1</v>
       </c>
       <c r="M48" s="7">
         <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>279</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1">
         <v>30</v>
       </c>
-      <c r="N48" s="8"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="L49" s="5"/>
-      <c r="M49" s="7"/>
+      <c r="L49" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M49" s="7">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="K50" s="7">
-        <f>SUM(M41:M50)/10</f>
-        <v>22.966000000000001</v>
-      </c>
       <c r="L50" s="5"/>
       <c r="M50" s="7"/>
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="K51" s="5">
-        <f>SUM(L41:L50)</f>
-        <v>30.220000000000002</v>
+      <c r="K51" s="7">
+        <f>SUM(M42:M51)/10</f>
+        <v>22.966000000000001</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="7"/>
       <c r="N51" s="8"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" t="s">
+      <c r="A52" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="K52" s="5">
+        <f>SUM(L42:L51)</f>
+        <v>30.220000000000002</v>
+      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
         <v>0</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
         <v>2</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>3</v>
       </c>
-      <c r="L52"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" t="s">
-        <v>238</v>
-      </c>
-      <c r="F53" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H53" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="L53" s="5">
-        <f>A53*G53</f>
-        <v>0.6</v>
-      </c>
-      <c r="M53" s="7">
-        <f>A53*H53</f>
-        <v>5.6</v>
-      </c>
-      <c r="N53" s="8"/>
+      <c r="L53"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>111</v>
+        <v>226</v>
+      </c>
+      <c r="F54" t="s">
+        <v>149</v>
       </c>
       <c r="G54" s="1">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="H54" s="1">
-        <v>6.14</v>
+        <v>2.8</v>
       </c>
       <c r="L54" s="5">
         <f>A54*G54</f>
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="M54" s="7">
         <f>A54*H54</f>
-        <v>6.14</v>
+        <v>5.6</v>
       </c>
       <c r="N54" s="8"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G55" s="1">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="H55" s="1">
-        <v>7.47</v>
+        <v>6.14</v>
       </c>
       <c r="L55" s="5">
         <f>A55*G55</f>
-        <v>1.6</v>
+        <v>0.68</v>
       </c>
       <c r="M55" s="7">
         <f>A55*H55</f>
-        <v>14.94</v>
+        <v>6.14</v>
       </c>
       <c r="N55" s="8"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>279</v>
+        <v>43</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G56" s="1">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H56" s="1">
-        <v>35</v>
+        <v>7.47</v>
       </c>
       <c r="L56" s="5">
         <f>A56*G56</f>
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="M56" s="7">
         <f>A56*H56</f>
+        <v>14.94</v>
+      </c>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H57" s="1">
         <v>35</v>
       </c>
-      <c r="N56" s="8"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="K57" s="7">
-        <f>SUM(M53:M57)/10</f>
+      <c r="L57" s="5">
+        <f>A57*G57</f>
+        <v>3.5</v>
+      </c>
+      <c r="M57" s="7">
+        <f>A57*H57</f>
+        <v>35</v>
+      </c>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="K58" s="7">
+        <f>SUM(M54:M58)/10</f>
         <v>6.1680000000000001</v>
-      </c>
-      <c r="L57" s="5"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="8"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="K58" s="5">
-        <f>SUM(L53:L57)</f>
-        <v>6.38</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="7"/>
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="K59"/>
-      <c r="L59"/>
+      <c r="K59" s="5">
+        <f>SUM(L54:L58)</f>
+        <v>6.38</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" t="s">
+      <c r="A60" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
         <v>0</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
         <v>2</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="5"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="8"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="H61" s="1">
-        <v>7.47</v>
-      </c>
-      <c r="L61" s="5">
-        <f>A61*G61</f>
-        <v>0.8</v>
-      </c>
-      <c r="M61" s="7">
-        <f>A61*H61</f>
-        <v>7.47</v>
-      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="7"/>
       <c r="N61" s="8"/>
     </row>
     <row r="62" spans="1:14">
@@ -3280,134 +3294,134 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>277</v>
+        <v>43</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G62" s="1">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H62" s="1">
-        <v>25</v>
-      </c>
-      <c r="K62" s="7">
-        <f>SUM(M60:M62)/10</f>
-        <v>3.2469999999999999</v>
+        <v>7.47</v>
       </c>
       <c r="L62" s="5">
         <f>A62*G62</f>
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="M62" s="7">
         <f>A62*H62</f>
+        <v>7.47</v>
+      </c>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>279</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H63" s="1">
         <v>25</v>
       </c>
-      <c r="N62" s="8"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="K63" s="5">
-        <f>SUM(L60:L63)</f>
+      <c r="K63" s="7">
+        <f>SUM(M61:M63)/10</f>
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="L63" s="5">
+        <f>A63*G63</f>
+        <v>2.5</v>
+      </c>
+      <c r="M63" s="7">
+        <f>A63*H63</f>
+        <v>25</v>
+      </c>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="K64" s="5">
+        <f>SUM(L61:L64)</f>
         <v>3.3</v>
       </c>
-      <c r="L63" s="5"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="8"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="L64"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="8"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" t="s">
+      <c r="A65" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
         <v>0</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
         <v>2</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>3</v>
       </c>
-      <c r="L65" s="5"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="8"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="H66" s="1">
-        <v>3.05</v>
-      </c>
-      <c r="L66" s="5">
-        <f>A66*G66</f>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="M66" s="7">
-        <f>A66*H66</f>
-        <v>9.1499999999999986</v>
-      </c>
+      <c r="L66" s="5"/>
+      <c r="M66" s="7"/>
       <c r="N66" s="8"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="G67" s="1">
-        <v>1.05</v>
+        <v>0.35</v>
       </c>
       <c r="H67" s="1">
-        <v>10.5</v>
+        <v>3.05</v>
       </c>
       <c r="L67" s="5">
         <f>A67*G67</f>
-        <v>1.05</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="M67" s="7">
         <f>A67*H67</f>
-        <v>10.5</v>
+        <v>9.1499999999999986</v>
       </c>
       <c r="N67" s="8"/>
     </row>
@@ -3416,36 +3430,33 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="G68" s="1">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="H68" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0.63</v>
+        <v>10.5</v>
       </c>
       <c r="L68" s="5">
         <f>A68*G68</f>
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="M68" s="7">
         <f>A68*H68</f>
-        <v>0.1</v>
+        <v>10.5</v>
       </c>
       <c r="N68" s="8"/>
     </row>
@@ -3454,39 +3465,36 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" t="s">
-        <v>113</v>
+        <v>76</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="G69" s="1">
-        <v>6.5</v>
+        <v>0.1</v>
       </c>
       <c r="H69" s="1">
-        <v>41.9</v>
-      </c>
-      <c r="J69" t="s">
-        <v>122</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>124</v>
+        <v>0.1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.63</v>
       </c>
       <c r="L69" s="5">
         <f>A69*G69</f>
-        <v>6.5</v>
+        <v>0.1</v>
       </c>
       <c r="M69" s="7">
         <f>A69*H69</f>
-        <v>41.9</v>
+        <v>0.1</v>
       </c>
       <c r="N69" s="8"/>
     </row>
@@ -3498,289 +3506,292 @@
         <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
-      </c>
-      <c r="F70"/>
+        <v>77</v>
+      </c>
+      <c r="D70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" t="s">
+        <v>112</v>
+      </c>
       <c r="G70" s="1">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H70" s="1">
-        <v>25</v>
-      </c>
-      <c r="K70" s="7">
-        <f>SUM(M65:M70)/10</f>
-        <v>8.6650000000000009</v>
+        <v>41.9</v>
+      </c>
+      <c r="J70" t="s">
+        <v>121</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="L70" s="5">
         <f>A70*G70</f>
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="M70" s="7">
         <f>A70*H70</f>
+        <v>41.9</v>
+      </c>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>279</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H71" s="1">
         <v>25</v>
       </c>
-      <c r="N70" s="8"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="K71" s="5">
-        <f>SUM(L65:L71)</f>
+      <c r="K71" s="7">
+        <f>SUM(M66:M71)/10</f>
+        <v>8.6650000000000009</v>
+      </c>
+      <c r="L71" s="5">
+        <f>A71*G71</f>
+        <v>2.5</v>
+      </c>
+      <c r="M71" s="7">
+        <f>A71*H71</f>
+        <v>25</v>
+      </c>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="K72" s="5">
+        <f>SUM(L66:L72)</f>
         <v>11.2</v>
       </c>
-      <c r="L71" s="5"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="8"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="L72"/>
-    </row>
-    <row r="73" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>240</v>
-      </c>
-      <c r="C73" t="s">
-        <v>239</v>
-      </c>
-      <c r="E73" t="s">
-        <v>241</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="H73" s="1">
-        <v>11.61</v>
-      </c>
-      <c r="L73" s="5">
-        <f>A73*G73</f>
-        <v>1.39</v>
-      </c>
-      <c r="M73" s="7">
-        <f>A73*H73</f>
-        <v>11.61</v>
-      </c>
-      <c r="N73" s="8"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="L73"/>
     </row>
     <row r="74" spans="1:14" ht="13.5" customHeight="1">
       <c r="A74">
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E74" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G74" s="1">
-        <v>0.32</v>
+        <v>1.39</v>
       </c>
       <c r="H74" s="1">
-        <v>2.0699999999999998</v>
+        <v>11.61</v>
       </c>
       <c r="L74" s="5">
         <f>A74*G74</f>
-        <v>0.32</v>
+        <v>1.39</v>
       </c>
       <c r="M74" s="7">
         <f>A74*H74</f>
-        <v>2.0699999999999998</v>
+        <v>11.61</v>
       </c>
       <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14" ht="13.5" customHeight="1">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>248</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="E75" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="G75" s="1">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="H75" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0.48</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="L75" s="5">
         <f>A75*G75</f>
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="M75" s="7">
         <f>A75*H75</f>
-        <v>0.2</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" ht="13.5" customHeight="1">
       <c r="A76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G76" s="1">
         <v>0.1</v>
       </c>
       <c r="H76" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I76" s="1">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="L76" s="5">
         <f>A76*G76</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M76" s="7">
         <f>A76*H76</f>
+        <v>0.2</v>
+      </c>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H77" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N76" s="8"/>
-    </row>
-    <row r="77" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" t="s">
-        <v>277</v>
-      </c>
-      <c r="G77" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H77" s="1">
-        <v>25</v>
-      </c>
-      <c r="K77" s="7">
-        <f>SUM(M73:M77)/10</f>
-        <v>3.9019999999999997</v>
+      <c r="I77" s="1">
+        <v>0.63</v>
       </c>
       <c r="L77" s="5">
         <f>A77*G77</f>
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="M77" s="7">
         <f>A77*H77</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>279</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H78" s="1">
         <v>25</v>
       </c>
-      <c r="N77" s="8"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="G78" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K78" s="5">
-        <f>SUM(L73:L78)</f>
+      <c r="K78" s="7">
+        <f>SUM(M74:M78)/10</f>
+        <v>3.9019999999999997</v>
+      </c>
+      <c r="L78" s="5">
+        <f>A78*G78</f>
+        <v>2.5</v>
+      </c>
+      <c r="M78" s="7">
+        <f>A78*H78</f>
+        <v>25</v>
+      </c>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="G79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K79" s="5">
+        <f>SUM(L74:L79)</f>
         <v>4.51</v>
       </c>
-      <c r="L78" s="5"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="8"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="L79"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="8"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" t="s">
+      <c r="A80" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="L80"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
         <v>0</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>4</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>2</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="5"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="8"/>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" t="s">
-        <v>219</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="s">
-        <v>247</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H81" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I81" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="L81" s="5">
-        <f>A81*G81</f>
-        <v>0.2</v>
-      </c>
-      <c r="M81" s="7">
-        <f>A81*H81</f>
-        <v>0.2</v>
-      </c>
+      <c r="L81" s="5"/>
+      <c r="M81" s="7"/>
       <c r="N81" s="8"/>
     </row>
     <row r="82" spans="1:14">
@@ -3788,72 +3799,74 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="G82" s="1">
         <v>0.1</v>
       </c>
       <c r="H82" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I82" s="1">
         <v>0.48</v>
       </c>
-      <c r="I82" s="1">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="L82" s="5">
-        <f t="shared" ref="L82:L89" si="4">A82*G82</f>
+        <f>A82*G82</f>
         <v>0.2</v>
       </c>
       <c r="M82" s="7">
-        <f t="shared" ref="M82:M89" si="5">A82*H82</f>
-        <v>0.96</v>
+        <f>A82*H82</f>
+        <v>0.2</v>
       </c>
       <c r="N82" s="8"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>96</v>
+        <v>137</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G83" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.1</v>
       </c>
       <c r="H83" s="1">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="J83" s="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="I83" s="1">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="L83" s="5">
-        <f t="shared" si="4"/>
-        <v>0.56000000000000005</v>
+        <f t="shared" ref="L83:L90" si="4">A83*G83</f>
+        <v>0.2</v>
       </c>
       <c r="M83" s="7">
-        <f t="shared" si="5"/>
-        <v>4.6900000000000004</v>
+        <f t="shared" ref="M83:M90" si="5">A83*H83</f>
+        <v>0.96</v>
       </c>
       <c r="N83" s="8"/>
     </row>
@@ -3862,34 +3875,34 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="D84" t="s">
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="G84" s="1">
-        <v>16.899999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H84" s="1">
-        <v>159.30000000000001</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J84" s="3"/>
       <c r="L84" s="5">
         <f t="shared" si="4"/>
-        <v>16.899999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M84" s="7">
         <f t="shared" si="5"/>
-        <v>159.30000000000001</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="N84" s="8"/>
     </row>
@@ -3898,36 +3911,34 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D85" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G85" s="1">
-        <v>7.67</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H85" s="1">
-        <v>60.52</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>272</v>
-      </c>
+        <v>159.30000000000001</v>
+      </c>
+      <c r="J85" s="3"/>
       <c r="L85" s="5">
         <f t="shared" si="4"/>
-        <v>7.67</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="M85" s="7">
         <f t="shared" si="5"/>
-        <v>60.52</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="N85" s="8"/>
     </row>
@@ -3936,290 +3947,291 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" t="s">
-        <v>137</v>
+        <v>255</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" t="s">
+        <v>257</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="G86" s="1">
-        <v>0.28000000000000003</v>
+        <v>7.67</v>
       </c>
       <c r="H86" s="1">
-        <v>2.58</v>
+        <v>60.52</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="L86" s="5">
         <f t="shared" si="4"/>
-        <v>0.28000000000000003</v>
+        <v>7.67</v>
       </c>
       <c r="M86" s="7">
         <f t="shared" si="5"/>
-        <v>2.58</v>
+        <v>60.52</v>
       </c>
       <c r="N86" s="8"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="C87" t="s">
+        <v>130</v>
       </c>
       <c r="F87" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="G87" s="1">
-        <v>0.05</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H87" s="1">
-        <v>0.5</v>
+        <v>2.58</v>
       </c>
       <c r="L87" s="5">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M87" s="7">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="N87" s="8"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>234</v>
+        <v>163</v>
+      </c>
+      <c r="F88" t="s">
+        <v>160</v>
       </c>
       <c r="G88" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H88" s="1">
         <v>0.5</v>
-      </c>
-      <c r="H88" s="1">
-        <v>5</v>
       </c>
       <c r="L88" s="5">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="M88" s="7">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="N88" s="8"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="G89" s="1">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H89" s="1">
-        <v>25</v>
-      </c>
-      <c r="K89" s="7">
-        <f>SUM(M81:M89)/10</f>
-        <v>27.074999999999999</v>
+        <v>5</v>
       </c>
       <c r="L89" s="5">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M89" s="7">
         <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" t="s">
+        <v>279</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H90" s="1">
         <v>25</v>
       </c>
-      <c r="N89" s="8"/>
-    </row>
-    <row r="90" spans="1:14" s="1" customFormat="1">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="J90"/>
-      <c r="K90" s="5">
-        <f>SUM(L80:L90)</f>
-        <v>30.060000000000002</v>
-      </c>
-      <c r="L90" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="M90" s="7" t="s">
-        <v>148</v>
+      <c r="K90" s="7">
+        <f>SUM(M82:M90)/10</f>
+        <v>27.074999999999999</v>
+      </c>
+      <c r="L90" s="5">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="M90" s="7">
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="N90" s="8"/>
     </row>
     <row r="91" spans="1:14" s="1" customFormat="1">
-      <c r="A91" s="12" t="s">
-        <v>141</v>
-      </c>
+      <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
       <c r="J91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
+      <c r="K91" s="5">
+        <f>SUM(L81:L91)</f>
+        <v>30.060000000000002</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N91" s="8"/>
     </row>
     <row r="92" spans="1:14" s="1" customFormat="1">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92" t="s">
-        <v>151</v>
-      </c>
-      <c r="C92" t="s">
-        <v>249</v>
-      </c>
-      <c r="D92" t="s">
-        <v>252</v>
-      </c>
+      <c r="A92" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" t="s">
-        <v>250</v>
-      </c>
-      <c r="G92" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="H92" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="I92" s="1">
-        <v>98</v>
-      </c>
+      <c r="F92"/>
       <c r="J92"/>
-      <c r="L92" s="5">
-        <f t="shared" ref="L92:L100" si="6">A92*G92</f>
-        <v>1.4</v>
-      </c>
-      <c r="M92" s="7">
-        <f>A92*H92</f>
-        <v>12.4</v>
-      </c>
-      <c r="N92" s="8"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
     </row>
     <row r="93" spans="1:14" s="1" customFormat="1">
       <c r="A93">
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="G93" s="1">
-        <v>3.22</v>
+        <v>1.4</v>
       </c>
       <c r="H93" s="1">
-        <v>32.200000000000003</v>
+        <v>12.4</v>
       </c>
       <c r="I93" s="1">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="J93"/>
       <c r="L93" s="5">
+        <f t="shared" ref="L93:L101" si="6">A93*G93</f>
+        <v>1.4</v>
+      </c>
+      <c r="M93" s="7">
+        <f>A93*H93</f>
+        <v>12.4</v>
+      </c>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="1:14" s="1" customFormat="1">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" t="s">
+        <v>241</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>242</v>
+      </c>
+      <c r="G94" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="H94" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I94" s="1">
+        <v>213</v>
+      </c>
+      <c r="J94"/>
+      <c r="L94" s="5">
         <f t="shared" si="6"/>
         <v>3.22</v>
       </c>
-      <c r="M93" s="7">
-        <f t="shared" ref="M93:M100" si="7">A93*H93</f>
+      <c r="M94" s="7">
+        <f t="shared" ref="M94:M101" si="7">A94*H94</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="N93" s="8"/>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94">
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95">
         <v>2</v>
       </c>
-      <c r="B94" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" t="s">
         <v>6</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>7</v>
       </c>
-      <c r="E94" t="s">
-        <v>57</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G94" s="1">
+      <c r="E95" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" s="1">
         <v>0.1</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H95" s="1">
         <v>0.48</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I95" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L94" s="5">
+      <c r="L95" s="5">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="M94" s="7">
+      <c r="M95" s="7">
         <f t="shared" si="7"/>
         <v>0.96</v>
       </c>
-      <c r="N94" s="8"/>
-    </row>
-    <row r="95" spans="1:14" s="1" customFormat="1">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" t="s">
-        <v>255</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95" t="s">
-        <v>61</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="J95"/>
-      <c r="L95" s="5">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="M95" s="7">
-        <f t="shared" si="7"/>
-        <v>0.14000000000000001</v>
-      </c>
       <c r="N95" s="8"/>
     </row>
     <row r="96" spans="1:14" s="1" customFormat="1">
@@ -4227,83 +4239,91 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96" s="2"/>
+      <c r="E96" t="s">
+        <v>60</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.63</v>
+      </c>
       <c r="J96"/>
       <c r="L96" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M96" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N96" s="8"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" s="1" customFormat="1">
       <c r="A97">
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
-      </c>
-      <c r="F97" t="s">
-        <v>137</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="H97" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="I97" s="1">
-        <v>10.73</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97" s="2"/>
+      <c r="J97"/>
       <c r="L97" s="5">
         <f t="shared" si="6"/>
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M97" s="7">
         <f t="shared" si="7"/>
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="N97" s="8"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="C98" t="s">
+        <v>132</v>
       </c>
       <c r="F98" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="G98" s="1">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="H98" s="1">
-        <v>0.5</v>
+        <v>1.74</v>
       </c>
       <c r="I98" s="1">
-        <v>4.66</v>
+        <v>10.73</v>
       </c>
       <c r="L98" s="5">
         <f t="shared" si="6"/>
-        <v>0.15000000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="M98" s="7">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="N98" s="8"/>
     </row>
@@ -4312,164 +4332,163 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>163</v>
+      </c>
+      <c r="F99" t="s">
+        <v>160</v>
       </c>
       <c r="G99" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H99" s="1">
         <v>0.5</v>
       </c>
-      <c r="H99" s="1">
-        <v>5</v>
-      </c>
       <c r="I99" s="1">
-        <v>50</v>
+        <v>4.66</v>
       </c>
       <c r="L99" s="5">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M99" s="7">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="N99" s="8"/>
     </row>
-    <row r="100" spans="1:14" s="1" customFormat="1">
+    <row r="100" spans="1:14">
       <c r="A100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>143</v>
-      </c>
-      <c r="C100" t="s">
-        <v>277</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100" s="2"/>
+        <v>245</v>
+      </c>
       <c r="G100" s="1">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H100" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I100" s="1">
-        <v>250</v>
-      </c>
-      <c r="J100"/>
-      <c r="K100" s="7">
-        <f>SUM(M92:M100)/10</f>
-        <v>8.8940000000000001</v>
+        <v>50</v>
       </c>
       <c r="L100" s="5">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M100" s="7">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N100" s="8"/>
     </row>
     <row r="101" spans="1:14" s="1" customFormat="1">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" t="s">
+        <v>279</v>
+      </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" s="2"/>
+      <c r="G101" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H101" s="1">
+        <v>25</v>
+      </c>
+      <c r="I101" s="1">
+        <v>250</v>
+      </c>
       <c r="J101"/>
-      <c r="K101" s="5">
-        <f>SUM(L92:L101)</f>
-        <v>9.2600000000000016</v>
-      </c>
-      <c r="L101" s="5"/>
-      <c r="M101" s="7"/>
+      <c r="K101" s="7">
+        <f>SUM(M93:M101)/10</f>
+        <v>8.8940000000000001</v>
+      </c>
+      <c r="L101" s="5">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="M101" s="7">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
       <c r="N101" s="8"/>
     </row>
     <row r="102" spans="1:14" s="1" customFormat="1">
-      <c r="A102" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102" s="2"/>
       <c r="J102"/>
-      <c r="L102" t="s">
-        <v>148</v>
-      </c>
-      <c r="M102"/>
-      <c r="N102"/>
+      <c r="K102" s="5">
+        <f>SUM(L93:L102)</f>
+        <v>9.2600000000000016</v>
+      </c>
+      <c r="L102" s="5"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="8"/>
     </row>
     <row r="103" spans="1:14" s="1" customFormat="1">
-      <c r="A103">
-        <v>2</v>
-      </c>
-      <c r="B103" t="s">
-        <v>179</v>
-      </c>
-      <c r="C103" t="s">
-        <v>198</v>
-      </c>
+      <c r="A103" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103"/>
+      <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
-      <c r="F103" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="F103" s="2"/>
       <c r="J103"/>
-      <c r="L103" s="5">
-        <f t="shared" ref="L103:L129" si="8">A103*G103</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="7">
-        <f t="shared" ref="M103:M129" si="9">A103*H103</f>
-        <v>0</v>
-      </c>
-      <c r="N103" s="8"/>
+      <c r="L103" t="s">
+        <v>141</v>
+      </c>
+      <c r="M103"/>
+      <c r="N103"/>
     </row>
     <row r="104" spans="1:14" s="1" customFormat="1">
       <c r="A104">
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104"/>
+        <v>170</v>
+      </c>
+      <c r="C104" t="s">
+        <v>189</v>
+      </c>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G104" s="1">
-        <v>1</v>
-      </c>
-      <c r="H104" s="1">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="J104"/>
       <c r="L104" s="5">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" ref="L104:L130" si="8">A104*G104</f>
+        <v>0</v>
       </c>
       <c r="M104" s="7">
-        <f t="shared" si="9"/>
-        <v>20</v>
+        <f t="shared" ref="M104:M130" si="9">A104*H104</f>
+        <v>0</v>
       </c>
       <c r="N104" s="8"/>
     </row>
     <row r="105" spans="1:14" s="1" customFormat="1">
       <c r="A105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G105" s="1">
         <v>1</v>
@@ -4480,11 +4499,11 @@
       <c r="J105"/>
       <c r="L105" s="5">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M105" s="7">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N105" s="8"/>
     </row>
@@ -4493,28 +4512,28 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G106" s="1">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="H106" s="1">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="J106"/>
       <c r="L106" s="5">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="M106" s="7">
         <f t="shared" si="9"/>
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="N106" s="8"/>
     </row>
@@ -4523,77 +4542,79 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G107" s="1">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="H107" s="1">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="J107"/>
       <c r="L107" s="5">
         <f t="shared" si="8"/>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="M107" s="7">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="N107" s="8"/>
     </row>
     <row r="108" spans="1:14" s="1" customFormat="1">
       <c r="A108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G108" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H108" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J108"/>
       <c r="L108" s="5">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="M108" s="7">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N108" s="8"/>
     </row>
     <row r="109" spans="1:14" s="1" customFormat="1">
       <c r="A109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="G109" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" s="1">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="J109"/>
       <c r="L109" s="5">
@@ -4602,35 +4623,35 @@
       </c>
       <c r="M109" s="7">
         <f t="shared" si="9"/>
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="N109" s="8"/>
     </row>
     <row r="110" spans="1:14" s="1" customFormat="1">
       <c r="A110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110" s="2"/>
       <c r="G110" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H110" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J110"/>
       <c r="L110" s="5">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M110" s="7">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N110" s="8"/>
     </row>
@@ -4639,76 +4660,76 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111" s="2"/>
       <c r="G111" s="1">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="H111" s="1">
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="J111"/>
       <c r="L111" s="5">
         <f t="shared" si="8"/>
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="M111" s="7">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N111" s="8"/>
     </row>
     <row r="112" spans="1:14" s="1" customFormat="1">
       <c r="A112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112" s="2"/>
+      <c r="G112" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H112" s="1">
+        <v>7.5</v>
+      </c>
       <c r="J112"/>
       <c r="L112" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M112" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N112" s="8"/>
     </row>
     <row r="113" spans="1:14" s="1" customFormat="1">
       <c r="A113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113" s="2"/>
-      <c r="G113" s="1">
-        <v>15</v>
-      </c>
-      <c r="H113" s="1">
-        <v>150</v>
-      </c>
       <c r="J113"/>
       <c r="L113" s="5">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M113" s="7">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N113" s="8"/>
     </row>
@@ -4717,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C114"/>
       <c r="D114"/>
@@ -4727,7 +4748,7 @@
         <v>10</v>
       </c>
       <c r="H114" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J114"/>
       <c r="L114" s="5">
@@ -4736,7 +4757,7 @@
       </c>
       <c r="M114" s="7">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N114" s="8"/>
     </row>
@@ -4745,26 +4766,26 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115" s="2"/>
       <c r="G115" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H115" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J115"/>
       <c r="L115" s="5">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M115" s="7">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N115" s="8"/>
     </row>
@@ -4773,30 +4794,26 @@
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>184</v>
-      </c>
-      <c r="C116" t="s">
-        <v>186</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C116"/>
       <c r="D116"/>
-      <c r="E116" s="13" t="s">
-        <v>189</v>
-      </c>
+      <c r="E116"/>
       <c r="F116" s="2"/>
       <c r="G116" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H116" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J116"/>
       <c r="L116" s="5">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M116" s="7">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N116" s="8"/>
     </row>
@@ -4805,14 +4822,14 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D117"/>
       <c r="E117" s="13" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="1">
@@ -4822,10 +4839,6 @@
         <v>100</v>
       </c>
       <c r="J117"/>
-      <c r="K117" s="7">
-        <f>SUM(M103:M117)/10</f>
-        <v>97.25</v>
-      </c>
       <c r="L117" s="5">
         <f t="shared" si="8"/>
         <v>15</v>
@@ -4837,376 +4850,412 @@
       <c r="N117" s="8"/>
     </row>
     <row r="118" spans="1:14" s="1" customFormat="1">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" t="s">
+        <v>178</v>
+      </c>
       <c r="D118"/>
-      <c r="E118" s="13"/>
+      <c r="E118" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="F118" s="2"/>
+      <c r="G118" s="1">
+        <v>15</v>
+      </c>
+      <c r="H118" s="1">
+        <v>100</v>
+      </c>
       <c r="J118"/>
-      <c r="K118" s="5">
-        <f>SUM(L103:L118)</f>
-        <v>85.25</v>
-      </c>
-      <c r="L118" s="5"/>
-      <c r="M118" s="7"/>
+      <c r="K118" s="7">
+        <f>SUM(M104:M118)/10</f>
+        <v>97.25</v>
+      </c>
+      <c r="L118" s="5">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="M118" s="7">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
       <c r="N118" s="8"/>
     </row>
-    <row r="119" spans="1:14">
-      <c r="A119" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L119" t="s">
-        <v>148</v>
-      </c>
-      <c r="M119" t="s">
-        <v>148</v>
-      </c>
+    <row r="119" spans="1:14" s="1" customFormat="1">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="2"/>
+      <c r="J119"/>
+      <c r="K119" s="5">
+        <f>SUM(L104:L119)</f>
+        <v>80.25</v>
+      </c>
+      <c r="L119" s="5"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="8"/>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120">
-        <v>1</v>
-      </c>
-      <c r="B120" t="s">
-        <v>165</v>
-      </c>
-      <c r="C120" t="s">
-        <v>164</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G120" s="1">
+      <c r="A120" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L120" t="s">
+        <v>141</v>
+      </c>
+      <c r="M120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" t="s">
+        <v>155</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G121" s="1">
         <v>10</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H121" s="1">
         <v>100</v>
       </c>
-      <c r="L120" s="5">
+      <c r="L121" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="M120" s="7">
+      <c r="M121" s="7">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="N120" s="8"/>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="B121" t="s">
-        <v>166</v>
-      </c>
-      <c r="C121" t="s">
-        <v>190</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G121" s="1">
+      <c r="N121" s="8"/>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" t="s">
+        <v>181</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G122" s="1">
         <v>7</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H122" s="1">
         <v>70</v>
       </c>
-      <c r="L121" s="5">
+      <c r="L122" s="5">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="M121" s="7">
+      <c r="M122" s="7">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="N121" s="8"/>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122" t="s">
-        <v>167</v>
-      </c>
-      <c r="C122" t="s">
-        <v>168</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G122" s="1">
+      <c r="N122" s="8"/>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" t="s">
+        <v>159</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G123" s="1">
         <v>5</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H123" s="1">
         <v>50</v>
       </c>
-      <c r="L122" s="5">
+      <c r="L123" s="5">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M122" s="7">
+      <c r="M123" s="7">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="N122" s="8"/>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>87</v>
-      </c>
-      <c r="C123" t="s">
-        <v>163</v>
-      </c>
-      <c r="F123" s="2" t="s">
+      <c r="N123" s="8"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
         <v>86</v>
       </c>
-      <c r="G123" s="1">
+      <c r="C124" t="s">
+        <v>154</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G124" s="1">
         <v>2.69</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H124" s="1">
         <v>24.64</v>
       </c>
-      <c r="L123" s="5">
+      <c r="L124" s="5">
         <f t="shared" si="8"/>
         <v>2.69</v>
       </c>
-      <c r="M123" s="7">
+      <c r="M124" s="7">
         <f t="shared" si="9"/>
         <v>24.64</v>
       </c>
-      <c r="N123" s="8"/>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124">
+      <c r="N124" s="8"/>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125">
         <v>2</v>
       </c>
-      <c r="B124" t="s">
-        <v>172</v>
-      </c>
-      <c r="F124" t="s">
-        <v>169</v>
-      </c>
-      <c r="G124" s="1">
+      <c r="B125" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" t="s">
+        <v>160</v>
+      </c>
+      <c r="G125" s="1">
         <v>0.05</v>
       </c>
-      <c r="H124" s="1">
+      <c r="H125" s="1">
         <v>0.5</v>
       </c>
-      <c r="L124" s="5">
+      <c r="L125" s="5">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="M124" s="7">
+      <c r="M125" s="7">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N124" s="8"/>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125">
-        <v>1</v>
-      </c>
-      <c r="B125" t="s">
-        <v>173</v>
-      </c>
-      <c r="C125" t="s">
-        <v>139</v>
-      </c>
-      <c r="F125" t="s">
-        <v>140</v>
-      </c>
-      <c r="G125" s="1">
+      <c r="N125" s="8"/>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126" t="s">
+        <v>132</v>
+      </c>
+      <c r="F126" t="s">
+        <v>133</v>
+      </c>
+      <c r="G126" s="1">
         <v>0.19</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H126" s="1">
         <v>1.74</v>
       </c>
-      <c r="L125" s="5">
+      <c r="L126" s="5">
         <f t="shared" si="8"/>
         <v>0.19</v>
       </c>
-      <c r="M125" s="7">
+      <c r="M126" s="7">
         <f t="shared" si="9"/>
         <v>1.74</v>
       </c>
-      <c r="N125" s="8"/>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126">
+      <c r="N126" s="8"/>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127">
         <v>2</v>
       </c>
-      <c r="B126" t="s">
-        <v>258</v>
-      </c>
-      <c r="F126"/>
-      <c r="G126" s="1">
-        <v>1</v>
-      </c>
-      <c r="H126" s="1">
+      <c r="B127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127"/>
+      <c r="G127" s="1">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1">
         <v>10</v>
       </c>
-      <c r="L126" s="5">
+      <c r="L127" s="5">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="M126" s="7">
+      <c r="M127" s="7">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="N126" s="8"/>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127" t="s">
-        <v>233</v>
-      </c>
-      <c r="G127" s="1">
+      <c r="N127" s="8"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>221</v>
+      </c>
+      <c r="G128" s="1">
         <v>8.5</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H128" s="1">
         <v>50</v>
       </c>
-      <c r="L127" s="5">
-        <f>A127*G127</f>
-        <v>8.5</v>
-      </c>
-      <c r="M127" s="7">
-        <f>A127*H127</f>
-        <v>50</v>
-      </c>
-      <c r="N127" s="8"/>
-    </row>
-    <row r="128" spans="1:14" s="1" customFormat="1">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128" t="s">
-        <v>262</v>
-      </c>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G128" s="1">
-        <v>15</v>
-      </c>
-      <c r="H128" s="1">
-        <v>120</v>
-      </c>
-      <c r="J128"/>
-      <c r="K128" s="17"/>
       <c r="L128" s="5">
         <f>A128*G128</f>
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="M128" s="7">
         <f>A128*H128</f>
+        <v>50</v>
+      </c>
+      <c r="N128" s="8"/>
+    </row>
+    <row r="129" spans="1:14" s="1" customFormat="1">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G129" s="1">
+        <v>15</v>
+      </c>
+      <c r="H129" s="1">
         <v>120</v>
       </c>
-      <c r="N128" s="8"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129" t="s">
-        <v>263</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G129" s="1">
+      <c r="J129"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="5">
+        <f>A129*G129</f>
+        <v>15</v>
+      </c>
+      <c r="M129" s="7">
+        <f>A129*H129</f>
+        <v>120</v>
+      </c>
+      <c r="N129" s="8"/>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G130" s="1">
         <v>9</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H130" s="1">
         <v>50</v>
       </c>
-      <c r="K129" s="7">
-        <f>SUM(M120:M129)/10</f>
+      <c r="K130" s="7">
+        <f>SUM(M121:M130)/10</f>
         <v>48.738</v>
       </c>
-      <c r="L129" s="5">
+      <c r="L130" s="5">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="M129" s="7">
+      <c r="M130" s="7">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="N129" s="8"/>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="F130"/>
-      <c r="K130" s="5">
-        <f>SUM(L120:L130)</f>
+      <c r="N130" s="8"/>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="F131"/>
+      <c r="K131" s="5">
+        <f>SUM(L121:L131)</f>
         <v>59.480000000000004</v>
       </c>
-      <c r="L130" s="5"/>
-      <c r="M130" s="7"/>
-      <c r="N130" s="8"/>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="A131" t="s">
-        <v>147</v>
-      </c>
-      <c r="K131" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="L131" s="18">
-        <f>SUM(L3:L130)</f>
-        <v>282.32999999999993</v>
-      </c>
-      <c r="M131" s="18">
-        <f>SUM(M3:M130)/10</f>
-        <v>261.55100000000004</v>
-      </c>
-      <c r="N131" s="10">
-        <f>SUM(N3:N130)/100</f>
-        <v>0.28600000000000003</v>
-      </c>
+      <c r="L131" s="5"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="8"/>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>281</v>
-      </c>
-      <c r="B132" s="19">
+        <v>140</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L132" s="17">
+        <f>SUM(L3:L131)</f>
+        <v>277.17999999999995</v>
+      </c>
+      <c r="M132" s="17">
+        <f>SUM(M3:M131)/10</f>
+        <v>261.40999999999997</v>
+      </c>
+      <c r="N132" s="10">
+        <f>SUM(N3:N131)/100</f>
+        <v>0.28600000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" s="18">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="L132" s="1">
-        <f>L131*0.09</f>
-        <v>25.409699999999994</v>
-      </c>
-      <c r="M132" s="1">
-        <f>M131*0.09</f>
-        <v>23.539590000000004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="L133" s="9">
-        <f>SUM(L131:L132)</f>
-        <v>307.73969999999991</v>
-      </c>
-      <c r="M133" s="9">
-        <f>SUM(M131:M132)</f>
-        <v>285.09059000000002</v>
+      <c r="L133" s="1">
+        <f>L132*0.09</f>
+        <v>24.946199999999994</v>
+      </c>
+      <c r="M133" s="1">
+        <f>M132*0.09</f>
+        <v>23.526899999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="L134" s="9">
+        <f>SUM(L132:L133)</f>
+        <v>302.12619999999993</v>
+      </c>
+      <c r="M134" s="9">
+        <f>SUM(M132:M133)</f>
+        <v>284.93689999999998</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E117" r:id="rId1"/>
-    <hyperlink ref="E116" r:id="rId2"/>
+    <hyperlink ref="E118" r:id="rId1"/>
+    <hyperlink ref="E117" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup scale="46" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
+++ b/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="BOM_Base" localSheetId="0">'Sheet1 (2)'!$A$2:$G$37</definedName>
-    <definedName name="HP03S_HIH6130" localSheetId="0">'Sheet1 (2)'!$A$81:$G$94</definedName>
+    <definedName name="HP03S_HIH6130" localSheetId="0">'Sheet1 (2)'!$A$98:$G$111</definedName>
     <definedName name="MRF24_Module" localSheetId="0">'Sheet1 (2)'!$A$42:$G$48</definedName>
     <definedName name="VPower_feed" localSheetId="0">'Sheet1 (2)'!$A$53:$G$56</definedName>
-    <definedName name="Wind_enc" localSheetId="0">'Sheet1 (2)'!$A$66:$G$70</definedName>
+    <definedName name="Wind_enc" localSheetId="0">'Sheet1 (2)'!$A$66:$G$78</definedName>
     <definedName name="Wind_Tree_connect" localSheetId="0">'Sheet1 (2)'!$A$61:$G$62</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="292">
   <si>
     <t>Qty</t>
   </si>
@@ -485,9 +486,6 @@
     <t>Fut:4:30</t>
   </si>
   <si>
-    <t>FUT: 5.84@1, 5.55@10</t>
-  </si>
-  <si>
     <t>FUT: 3.89@10</t>
   </si>
   <si>
@@ -533,9 +531,6 @@
     <t>Cable</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTALS </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -617,27 +612,6 @@
     <t>PIC24FJ128GA008-I/PT-ND5.2</t>
   </si>
   <si>
-    <t>Wind Tree</t>
-  </si>
-  <si>
-    <t>PVC screw coupling 3/4" male, gray,electrical</t>
-  </si>
-  <si>
-    <t>PVC screw coupling 3/4" female , tall</t>
-  </si>
-  <si>
-    <t>PVC coupling 1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bearing</t>
-  </si>
-  <si>
-    <t>Axel, wind direction</t>
-  </si>
-  <si>
-    <t>Axel Wind speed</t>
-  </si>
-  <si>
     <t>Anemometer</t>
   </si>
   <si>
@@ -662,33 +636,6 @@
     <t>Lowes</t>
   </si>
   <si>
-    <t xml:space="preserve"> feet , PVC pipe, Shedule 40</t>
-  </si>
-  <si>
-    <t>O-ring 3/4"</t>
-  </si>
-  <si>
-    <t>feet hookup wire 3 pol</t>
-  </si>
-  <si>
-    <t>PVC Bearing Housing</t>
-  </si>
-  <si>
-    <t>PVC T-junction 3/4"</t>
-  </si>
-  <si>
-    <t>PVC reducer 1" to 3/4"</t>
-  </si>
-  <si>
-    <t>ACE</t>
-  </si>
-  <si>
-    <t>Lowes/Home Depot</t>
-  </si>
-  <si>
-    <t>Wind speed rotor 8 pol</t>
-  </si>
-  <si>
     <t>Frys</t>
   </si>
   <si>
@@ -794,9 +741,6 @@
     <t>Rain, Sun</t>
   </si>
   <si>
-    <t>OSRAM_SHF9201</t>
-  </si>
-  <si>
     <t>Reflective opto interrupter</t>
   </si>
   <si>
@@ -908,18 +852,9 @@
     <t>Gold Phoenix 100 @ $1.28</t>
   </si>
   <si>
-    <t>tax</t>
-  </si>
-  <si>
     <t>Barometer &amp; Hygrometer PCB</t>
   </si>
   <si>
-    <t>Wind Speed Encoder PCB</t>
-  </si>
-  <si>
-    <t>Wind Direction Encoder PCB</t>
-  </si>
-  <si>
     <t>Wind  tree distributor PCB</t>
   </si>
   <si>
@@ -975,6 +910,84 @@
   </si>
   <si>
     <t>MBR0520TPMSCT-ND</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>311-1.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>Rotor</t>
+  </si>
+  <si>
+    <t>Wind Speed Sensor</t>
+  </si>
+  <si>
+    <t>Housing 2parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bearings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axcel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-clips 1/4 </t>
+  </si>
+  <si>
+    <t>Ft Cable 3-pole</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> label </t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Magnet  diametrically polarized</t>
+  </si>
+  <si>
+    <t>Wind Direction  Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS5030 </t>
+  </si>
+  <si>
+    <t>TSSOP 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK: AS5030-ATSTCT-ND </t>
+  </si>
+  <si>
+    <t>Future 3:03</t>
+  </si>
+  <si>
+    <t>Cost for main brd, Wifi, &amp;  baro_hyg sensor $82 at qty 10</t>
+  </si>
+  <si>
+    <t>Cost for Winspeed sensor board only $7.5 at qty 10</t>
+  </si>
+  <si>
+    <t>Cost for Wind Direction sensord board only  $9.50 at qty 10</t>
+  </si>
+  <si>
+    <t>FUT: 5.18 @ 5</t>
+  </si>
+  <si>
+    <t>FUT: 3.17 @5</t>
+  </si>
+  <si>
+    <t>FUT: 1.70 @10</t>
+  </si>
+  <si>
+    <t>OSRAM SFH9201</t>
+  </si>
+  <si>
+    <t>MOU: 0.95 @10</t>
   </si>
 </sst>
 </file>
@@ -984,7 +997,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,8 +1059,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,6 +1093,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1089,7 +1116,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1114,6 +1141,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1125,27 +1157,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_Tree_connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM_Base" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="VPower_feed" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MRF24_Module" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_enc" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HP03S_HIH6130" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_Tree_connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM_Base" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1436,16 +1468,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
@@ -1458,7 +1490,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="12" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B1" s="11"/>
     </row>
@@ -1494,7 +1526,7 @@
         <v>119</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1502,7 +1534,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1511,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>90</v>
@@ -1534,8 +1566,8 @@
         <v>6.24</v>
       </c>
       <c r="N3" s="8">
-        <f>A3*I3</f>
-        <v>28.6</v>
+        <f>Q7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
@@ -1543,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
@@ -1555,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="G4" s="1">
         <v>1.91</v>
@@ -1578,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>95</v>
@@ -1587,7 +1619,7 @@
         <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>97</v>
@@ -1614,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1649,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1684,16 +1716,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -1722,16 +1754,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>100</v>
@@ -1760,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
@@ -1769,7 +1801,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>101</v>
@@ -1798,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1807,7 +1839,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>99</v>
@@ -1836,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1848,7 +1880,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="G12" s="1">
         <v>0.1</v>
@@ -1874,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
@@ -1883,10 +1915,10 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G13" s="1">
         <v>0.1</v>
@@ -1912,19 +1944,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G14" s="1">
         <v>0.1</v>
@@ -1950,7 +1982,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>106</v>
@@ -1959,7 +1991,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>105</v>
@@ -1988,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -2000,13 +2032,16 @@
         <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" s="1">
         <v>1.57</v>
       </c>
       <c r="H16" s="1">
         <v>13.88</v>
+      </c>
+      <c r="J16" t="s">
+        <v>291</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="0"/>
@@ -2029,13 +2064,13 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G17" s="1">
         <v>0.68</v>
@@ -2058,19 +2093,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="G18" s="1">
         <v>0.1</v>
@@ -2128,19 +2163,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G20" s="1">
         <v>0.42</v>
@@ -2163,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -2198,16 +2233,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G22" s="1">
         <v>0.3</v>
@@ -2230,13 +2265,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G23" s="1">
         <v>0.16</v>
@@ -2259,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="G24" s="1">
         <v>0.32</v>
@@ -2288,13 +2323,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="G25" s="1">
         <v>0.44</v>
@@ -2317,19 +2352,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="G26" s="1">
         <v>0.21</v>
@@ -2352,16 +2387,16 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>88</v>
@@ -2387,19 +2422,19 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G28" s="1">
         <v>0.43</v>
@@ -2454,10 +2489,10 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
@@ -2469,7 +2504,7 @@
         <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G30" s="1">
         <v>5.2</v>
@@ -2478,27 +2513,27 @@
         <v>38.9</v>
       </c>
       <c r="J30" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="1"/>
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
         <v>117</v>
@@ -2513,18 +2548,18 @@
         <v>7.42</v>
       </c>
       <c r="H31" s="1">
-        <v>58.4</v>
+        <v>51.8</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>287</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.42</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="N31" s="8"/>
     </row>
@@ -2533,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -2551,7 +2586,10 @@
         <v>2.6</v>
       </c>
       <c r="H32" s="1">
-        <v>18.600000000000001</v>
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="0"/>
@@ -2559,7 +2597,7 @@
       </c>
       <c r="M32" s="7">
         <f t="shared" si="1"/>
-        <v>18.600000000000001</v>
+        <v>17</v>
       </c>
       <c r="N32" s="8"/>
     </row>
@@ -2603,13 +2641,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>116</v>
@@ -2740,34 +2778,34 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="G38" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H38" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14">
       <c r="K39" s="7">
         <f>SUM(M3:M39)/10</f>
-        <v>34.505000000000003</v>
+        <v>31.635000000000002</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="7"/>
@@ -2776,19 +2814,19 @@
     <row r="40" spans="1:14">
       <c r="K40" s="5">
         <f>SUM(L3:L39)</f>
-        <v>42.52</v>
+        <v>40.740000000000009</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="12" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B41" s="11"/>
       <c r="L41"/>
@@ -2818,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -2856,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -2894,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
@@ -2932,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
@@ -2967,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -3020,7 +3058,7 @@
         <v>26.1</v>
       </c>
       <c r="H48" s="1">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J48" t="s">
         <v>120</v>
@@ -3034,7 +3072,7 @@
       </c>
       <c r="M48" s="7">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N48" s="8"/>
     </row>
@@ -3043,27 +3081,27 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="G49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L49" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49" s="7">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N49" s="8"/>
     </row>
@@ -3075,7 +3113,7 @@
     <row r="51" spans="1:14">
       <c r="K51" s="7">
         <f>SUM(M42:M51)/10</f>
-        <v>22.966000000000001</v>
+        <v>23.765999999999998</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="7"/>
@@ -3083,12 +3121,12 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="12" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B52" s="11"/>
       <c r="K52" s="5">
         <f>SUM(L42:L51)</f>
-        <v>30.220000000000002</v>
+        <v>29.220000000000002</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="7"/>
@@ -3117,16 +3155,16 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G54" s="1">
         <v>0.3</v>
@@ -3219,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="G57" s="1">
         <v>3.5</v>
@@ -3260,7 +3298,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="12" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
@@ -3329,10 +3367,10 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="G63" s="1">
         <v>2.5</v>
@@ -3365,1371 +3403,1345 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="12" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B65" s="11"/>
       <c r="L65"/>
     </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="s">
-        <v>0</v>
+    <row r="66" spans="1:14" s="1" customFormat="1">
+      <c r="A66">
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1">
+        <v>15</v>
+      </c>
+      <c r="H66" s="1">
+        <v>100</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="5">
+        <f>A66*G66</f>
+        <v>15</v>
+      </c>
+      <c r="M66" s="7">
+        <f>A66*H66/10</f>
+        <v>10</v>
+      </c>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>277</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L67" s="5"/>
+      <c r="M67" s="7">
+        <f>A67*H67/10</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="20">
         <v>2</v>
       </c>
-      <c r="E66" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="5"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="8"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67">
-        <v>3</v>
-      </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="H67" s="1">
-        <v>3.05</v>
-      </c>
-      <c r="L67" s="5">
-        <f>A67*G67</f>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="M67" s="7">
-        <f>A67*H67</f>
-        <v>9.1499999999999986</v>
-      </c>
-      <c r="N67" s="8"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68">
-        <v>1</v>
-      </c>
       <c r="B68" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="G68" s="1">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="H68" s="1">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="L68" s="5">
         <f>A68*G68</f>
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="M68" s="7">
-        <f>A68*H68</f>
-        <v>10.5</v>
+        <f>A68*H68/10</f>
+        <v>5</v>
       </c>
       <c r="N68" s="8"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69">
+      <c r="A69" s="20">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="G69" s="1">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="H69" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0.63</v>
+        <v>40</v>
       </c>
       <c r="L69" s="5">
         <f>A69*G69</f>
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="M69" s="7">
-        <f>A69*H69</f>
-        <v>0.1</v>
+        <f>A69*H69/10</f>
+        <v>4</v>
       </c>
       <c r="N69" s="8"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70">
-        <v>1</v>
+      <c r="A70" s="20">
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" t="s">
-        <v>33</v>
-      </c>
-      <c r="F70" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="G70" s="1">
-        <v>6.5</v>
+        <v>0.2</v>
       </c>
       <c r="H70" s="1">
-        <v>41.9</v>
-      </c>
-      <c r="J70" t="s">
-        <v>121</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="L70" s="5">
         <f>A70*G70</f>
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="M70" s="7">
-        <f>A70*H70</f>
-        <v>41.9</v>
+        <f>A70*H70/10</f>
+        <v>2</v>
       </c>
       <c r="N70" s="8"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71">
+      <c r="A71" s="20">
         <v>1</v>
       </c>
       <c r="B71" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H71" s="1">
+        <v>50</v>
+      </c>
+      <c r="L71" s="5">
+        <f t="shared" ref="L71:L72" si="4">A71*G71</f>
+        <v>0.75</v>
+      </c>
+      <c r="M71" s="7">
+        <f t="shared" ref="M71:M72" si="5">A71*H71/10</f>
+        <v>5</v>
+      </c>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="21">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>275</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H72" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L72" s="5">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="M72" s="7">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>276</v>
+      </c>
+      <c r="G73" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H73" s="1">
+        <v>75</v>
+      </c>
+      <c r="I73" s="1">
+        <v>400</v>
+      </c>
+      <c r="L73" s="5">
+        <f t="shared" ref="L73:L79" si="6">A73*G73</f>
+        <v>7.5</v>
+      </c>
+      <c r="M73" s="7">
+        <f t="shared" ref="M73:M79" si="7">A73*H73/10</f>
+        <v>7.5</v>
+      </c>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="20">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H74" s="1">
+        <v>17</v>
+      </c>
+      <c r="L74" s="5">
+        <f t="shared" si="6"/>
+        <v>1.7</v>
+      </c>
+      <c r="M74" s="7">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
         <v>136</v>
       </c>
-      <c r="C71" t="s">
-        <v>279</v>
-      </c>
-      <c r="F71"/>
-      <c r="G71" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H71" s="1">
-        <v>25</v>
-      </c>
-      <c r="K71" s="7">
-        <f>SUM(M66:M71)/10</f>
-        <v>8.6650000000000009</v>
-      </c>
-      <c r="L71" s="5">
-        <f>A71*G71</f>
-        <v>2.5</v>
-      </c>
-      <c r="M71" s="7">
-        <f>A71*H71</f>
-        <v>25</v>
-      </c>
-      <c r="N71" s="8"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="K72" s="5">
-        <f>SUM(L66:L72)</f>
-        <v>11.2</v>
-      </c>
-      <c r="L72" s="5"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="8"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="L73"/>
-    </row>
-    <row r="74" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>228</v>
-      </c>
-      <c r="C74" t="s">
-        <v>227</v>
-      </c>
-      <c r="E74" t="s">
-        <v>229</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G74" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="H74" s="1">
-        <v>11.61</v>
-      </c>
-      <c r="L74" s="5">
-        <f>A74*G74</f>
-        <v>1.39</v>
-      </c>
-      <c r="M74" s="7">
-        <f>A74*H74</f>
-        <v>11.61</v>
-      </c>
-      <c r="N74" s="8"/>
-    </row>
-    <row r="75" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>233</v>
-      </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="G75" s="1">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="H75" s="1">
-        <v>2.0699999999999998</v>
+        <v>3.05</v>
       </c>
       <c r="L75" s="5">
-        <f>A75*G75</f>
-        <v>0.32</v>
+        <f t="shared" si="6"/>
+        <v>1.0499999999999998</v>
       </c>
       <c r="M75" s="7">
-        <f>A75*H75</f>
-        <v>2.0699999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.91499999999999981</v>
       </c>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" ht="13.5" customHeight="1">
+    <row r="76" spans="1:14">
       <c r="A76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E76" t="s">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="G76" s="1">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="H76" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0.48</v>
+        <v>10.5</v>
       </c>
       <c r="L76" s="5">
-        <f>A76*G76</f>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>1.05</v>
       </c>
       <c r="M76" s="7">
-        <f>A76*H76</f>
-        <v>0.2</v>
+        <f t="shared" si="7"/>
+        <v>1.05</v>
       </c>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" ht="14.25" customHeight="1">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G77" s="1">
         <v>0.1</v>
       </c>
       <c r="H77" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I77" s="1">
         <v>0.63</v>
       </c>
       <c r="L77" s="5">
-        <f>A77*G77</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="M77" s="7">
-        <f>A77*H77</f>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.01</v>
       </c>
       <c r="N77" s="8"/>
     </row>
-    <row r="78" spans="1:14" ht="14.25" customHeight="1">
+    <row r="78" spans="1:14" hidden="1">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H78" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L78" s="5">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="M78" s="7">
+        <f t="shared" si="7"/>
+        <v>4.1899999999999995</v>
+      </c>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="21">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
         <v>279</v>
       </c>
-      <c r="G78" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H78" s="1">
-        <v>25</v>
-      </c>
-      <c r="K78" s="7">
-        <f>SUM(M74:M78)/10</f>
-        <v>3.9019999999999997</v>
-      </c>
-      <c r="L78" s="5">
-        <f>A78*G78</f>
-        <v>2.5</v>
-      </c>
-      <c r="M78" s="7">
-        <f>A78*H78</f>
-        <v>25</v>
-      </c>
-      <c r="N78" s="8"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="G79" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K79" s="5">
-        <f>SUM(L74:L79)</f>
-        <v>4.51</v>
-      </c>
-      <c r="L79" s="5"/>
-      <c r="M79" s="7"/>
+      <c r="C79" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" t="s">
+        <v>281</v>
+      </c>
+      <c r="E79" t="s">
+        <v>283</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G79" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="H79" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="J79" t="s">
+        <v>288</v>
+      </c>
+      <c r="L79" s="5">
+        <f t="shared" si="6"/>
+        <v>6.3</v>
+      </c>
+      <c r="M79" s="7">
+        <f t="shared" si="7"/>
+        <v>3.17</v>
+      </c>
       <c r="N79" s="8"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="L80"/>
+      <c r="A80" s="21"/>
+      <c r="L80" s="22">
+        <f>SUM(L66:L79)</f>
+        <v>51.099999999999994</v>
+      </c>
+      <c r="M80" s="23">
+        <f>SUM(M66:M79)</f>
+        <v>45.36</v>
+      </c>
+      <c r="N80" s="8"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="5"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="8"/>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="A81" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="1" customFormat="1">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>235</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" s="2"/>
       <c r="G82" s="1">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="H82" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0.48</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J82"/>
       <c r="L82" s="5">
         <f>A82*G82</f>
+        <v>15</v>
+      </c>
+      <c r="M82" s="7">
+        <f>A82*H82/10</f>
+        <v>10</v>
+      </c>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="21">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>270</v>
+      </c>
+      <c r="G83" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H83" s="1">
+        <v>60</v>
+      </c>
+      <c r="I83" s="1">
+        <v>400</v>
+      </c>
+      <c r="L83" s="5">
+        <f t="shared" ref="L83:L88" si="8">A83*G83</f>
+        <v>7.5</v>
+      </c>
+      <c r="M83" s="7">
+        <f t="shared" ref="M83:M95" si="9">A83*H83/10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="20">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>271</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H84" s="1">
+        <v>25</v>
+      </c>
+      <c r="L84" s="5">
+        <f>A84*G84</f>
+        <v>5</v>
+      </c>
+      <c r="M84" s="7">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="20">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>272</v>
+      </c>
+      <c r="G85" s="1">
+        <v>5</v>
+      </c>
+      <c r="H85" s="1">
+        <v>40</v>
+      </c>
+      <c r="L85" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M85" s="7">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="20">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="1">
         <v>0.2</v>
       </c>
-      <c r="M82" s="7">
-        <f>A82*H82</f>
+      <c r="H86" s="1">
+        <v>10</v>
+      </c>
+      <c r="L86" s="5">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="M86" s="7">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="20">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>274</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H87" s="1">
+        <v>50</v>
+      </c>
+      <c r="L87" s="5">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="M87" s="7">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="21">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>275</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H88" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L88" s="5">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="M88" s="7">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" t="s">
+        <v>290</v>
+      </c>
+      <c r="E89" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="H89" s="1">
+        <v>11.61</v>
+      </c>
+      <c r="L89" s="5">
+        <f>A89*G89</f>
+        <v>1.39</v>
+      </c>
+      <c r="M89" s="7">
+        <f t="shared" si="9"/>
+        <v>1.161</v>
+      </c>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" t="s">
+        <v>212</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L90" s="5">
+        <f t="shared" ref="L90:L95" si="10">A90*G90</f>
+        <v>0.32</v>
+      </c>
+      <c r="M90" s="7">
+        <f t="shared" si="9"/>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>216</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="L91" s="5">
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="N82" s="8"/>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83">
+      <c r="M91" s="7">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>79</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="L92" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="M92" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>268</v>
+      </c>
+      <c r="G93" s="1">
+        <v>5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>40</v>
+      </c>
+      <c r="L93" s="5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="M93" s="7">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>266</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="L94" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="M94" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" t="s">
+        <v>257</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="H95" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="I95" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="L95" s="5">
+        <f t="shared" si="10"/>
+        <v>1.75</v>
+      </c>
+      <c r="M95" s="7">
+        <f t="shared" si="9"/>
+        <v>1.75</v>
+      </c>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="G96" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L96" s="22">
+        <f>SUM(L82:L95)</f>
+        <v>43.260000000000005</v>
+      </c>
+      <c r="M96" s="23">
+        <f>SUM(M82:M95)</f>
+        <v>39.916000000000011</v>
+      </c>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
         <v>2</v>
       </c>
-      <c r="B83" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" t="s">
-        <v>251</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="I83" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L83" s="5">
-        <f t="shared" ref="L83:L90" si="4">A83*G83</f>
-        <v>0.2</v>
-      </c>
-      <c r="M83" s="7">
-        <f t="shared" ref="M83:M90" si="5">A83*H83</f>
-        <v>0.96</v>
-      </c>
-      <c r="N83" s="8"/>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" t="s">
-        <v>196</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H84" s="1">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="J84" s="3"/>
-      <c r="L84" s="5">
-        <f t="shared" si="4"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M84" s="7">
-        <f t="shared" si="5"/>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="N84" s="8"/>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85" t="s">
-        <v>252</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D85" t="s">
-        <v>240</v>
-      </c>
-      <c r="E85" t="s">
-        <v>33</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G85" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H85" s="1">
-        <v>159.30000000000001</v>
-      </c>
-      <c r="J85" s="3"/>
-      <c r="L85" s="5">
-        <f t="shared" si="4"/>
-        <v>16.899999999999999</v>
-      </c>
-      <c r="M85" s="7">
-        <f t="shared" si="5"/>
-        <v>159.30000000000001</v>
-      </c>
-      <c r="N85" s="8"/>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
-        <v>255</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D86" t="s">
-        <v>257</v>
-      </c>
-      <c r="E86" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G86" s="1">
-        <v>7.67</v>
-      </c>
-      <c r="H86" s="1">
-        <v>60.52</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L86" s="5">
-        <f t="shared" si="4"/>
-        <v>7.67</v>
-      </c>
-      <c r="M86" s="7">
-        <f t="shared" si="5"/>
-        <v>60.52</v>
-      </c>
-      <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
-        <v>164</v>
-      </c>
-      <c r="C87" t="s">
-        <v>130</v>
-      </c>
-      <c r="F87" t="s">
-        <v>131</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H87" s="1">
-        <v>2.58</v>
-      </c>
-      <c r="L87" s="5">
-        <f t="shared" si="4"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M87" s="7">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="N87" s="8"/>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>163</v>
-      </c>
-      <c r="F88" t="s">
-        <v>160</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H88" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L88" s="5">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="M88" s="7">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="N88" s="8"/>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89">
+      <c r="E98" t="s">
         <v>3</v>
       </c>
-      <c r="B89" t="s">
-        <v>222</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H89" s="1">
-        <v>5</v>
-      </c>
-      <c r="L89" s="5">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="M89" s="7">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="N89" s="8"/>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" t="s">
-        <v>279</v>
-      </c>
-      <c r="G90" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H90" s="1">
-        <v>25</v>
-      </c>
-      <c r="K90" s="7">
-        <f>SUM(M82:M90)/10</f>
-        <v>27.074999999999999</v>
-      </c>
-      <c r="L90" s="5">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="M90" s="7">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="N90" s="8"/>
-    </row>
-    <row r="91" spans="1:14" s="1" customFormat="1">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="J91"/>
-      <c r="K91" s="5">
-        <f>SUM(L81:L91)</f>
-        <v>30.060000000000002</v>
-      </c>
-      <c r="L91" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="M91" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N91" s="8"/>
-    </row>
-    <row r="92" spans="1:14" s="1" customFormat="1">
-      <c r="A92" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="J92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-    </row>
-    <row r="93" spans="1:14" s="1" customFormat="1">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>144</v>
-      </c>
-      <c r="C93" t="s">
-        <v>237</v>
-      </c>
-      <c r="D93" t="s">
-        <v>240</v>
-      </c>
-      <c r="E93"/>
-      <c r="F93" t="s">
-        <v>238</v>
-      </c>
-      <c r="G93" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="H93" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="I93" s="1">
-        <v>98</v>
-      </c>
-      <c r="J93"/>
-      <c r="L93" s="5">
-        <f t="shared" ref="L93:L101" si="6">A93*G93</f>
-        <v>1.4</v>
-      </c>
-      <c r="M93" s="7">
-        <f>A93*H93</f>
-        <v>12.4</v>
-      </c>
-      <c r="N93" s="8"/>
-    </row>
-    <row r="94" spans="1:14" s="1" customFormat="1">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" t="s">
-        <v>239</v>
-      </c>
-      <c r="D94" t="s">
-        <v>241</v>
-      </c>
-      <c r="E94"/>
-      <c r="F94" t="s">
-        <v>242</v>
-      </c>
-      <c r="G94" s="1">
-        <v>3.22</v>
-      </c>
-      <c r="H94" s="1">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="I94" s="1">
-        <v>213</v>
-      </c>
-      <c r="J94"/>
-      <c r="L94" s="5">
-        <f t="shared" si="6"/>
-        <v>3.22</v>
-      </c>
-      <c r="M94" s="7">
-        <f t="shared" ref="M94:M101" si="7">A94*H94</f>
-        <v>32.200000000000003</v>
-      </c>
-      <c r="N94" s="8"/>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95">
-        <v>2</v>
-      </c>
-      <c r="B95" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" t="s">
-        <v>56</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="I95" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L95" s="5">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="M95" s="7">
-        <f t="shared" si="7"/>
-        <v>0.96</v>
-      </c>
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="1:14" s="1" customFormat="1">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" t="s">
-        <v>243</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96" t="s">
-        <v>60</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I96" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="J96"/>
-      <c r="L96" s="5">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="M96" s="7">
-        <f t="shared" si="7"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="1:14" s="1" customFormat="1">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97" t="s">
-        <v>139</v>
-      </c>
-      <c r="C97" t="s">
-        <v>141</v>
-      </c>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97" s="2"/>
-      <c r="J97"/>
-      <c r="L97" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N97" s="8"/>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" t="s">
-        <v>132</v>
-      </c>
-      <c r="F98" t="s">
-        <v>131</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="H98" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="I98" s="1">
-        <v>10.73</v>
-      </c>
-      <c r="L98" s="5">
-        <f t="shared" si="6"/>
-        <v>0.19</v>
-      </c>
-      <c r="M98" s="7">
-        <f t="shared" si="7"/>
-        <v>1.74</v>
-      </c>
+      <c r="L98" s="5"/>
+      <c r="M98" s="7"/>
       <c r="N98" s="8"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
-      </c>
-      <c r="F99" t="s">
-        <v>160</v>
+        <v>137</v>
+      </c>
+      <c r="C99" t="s">
+        <v>189</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>216</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="G99" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H99" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I99" s="1">
-        <v>4.66</v>
+        <v>0.48</v>
       </c>
       <c r="L99" s="5">
-        <f t="shared" si="6"/>
-        <v>0.15000000000000002</v>
+        <f>A99*G99</f>
+        <v>0.2</v>
       </c>
       <c r="M99" s="7">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f>A99*H99</f>
+        <v>0.2</v>
       </c>
       <c r="N99" s="8"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>232</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="I100" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L100" s="5">
+        <f t="shared" ref="L100:L107" si="11">A100*G100</f>
+        <v>0.2</v>
+      </c>
+      <c r="M100" s="7">
+        <f t="shared" ref="M100:M107" si="12">A100*H100</f>
+        <v>0.96</v>
+      </c>
+      <c r="N100" s="8"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" t="s">
+        <v>96</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H101" s="1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="L101" s="5">
+        <f t="shared" si="11"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M101" s="7">
+        <f t="shared" si="12"/>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="N101" s="8"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G102" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H102" s="1">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="L102" s="5">
+        <f t="shared" si="11"/>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M102" s="7">
+        <f t="shared" si="12"/>
+        <v>159.30000000000001</v>
+      </c>
+      <c r="N102" s="8"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" t="s">
+        <v>238</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G103" s="1">
+        <v>7.67</v>
+      </c>
+      <c r="H103" s="1">
+        <v>60.52</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L103" s="5">
+        <f t="shared" si="11"/>
+        <v>7.67</v>
+      </c>
+      <c r="M103" s="7">
+        <f t="shared" si="12"/>
+        <v>60.52</v>
+      </c>
+      <c r="N103" s="8"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" t="s">
+        <v>130</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H104" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="L104" s="5">
+        <f t="shared" si="11"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M104" s="7">
+        <f t="shared" si="12"/>
+        <v>2.58</v>
+      </c>
+      <c r="N104" s="8"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>161</v>
+      </c>
+      <c r="F105" t="s">
+        <v>158</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L105" s="5">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="M105" s="7">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="N105" s="8"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106">
         <v>3</v>
       </c>
-      <c r="B100" t="s">
-        <v>245</v>
-      </c>
-      <c r="G100" s="1">
+      <c r="B106" t="s">
+        <v>204</v>
+      </c>
+      <c r="G106" s="1">
         <v>0.5</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H106" s="1">
         <v>5</v>
       </c>
-      <c r="I100" s="1">
-        <v>50</v>
-      </c>
-      <c r="L100" s="5">
-        <f t="shared" si="6"/>
+      <c r="L106" s="5">
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
-      <c r="M100" s="7">
-        <f t="shared" si="7"/>
+      <c r="M106" s="7">
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="N100" s="8"/>
-    </row>
-    <row r="101" spans="1:14" s="1" customFormat="1">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101" t="s">
-        <v>136</v>
-      </c>
-      <c r="C101" t="s">
-        <v>279</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H101" s="1">
-        <v>25</v>
-      </c>
-      <c r="I101" s="1">
-        <v>250</v>
-      </c>
-      <c r="J101"/>
-      <c r="K101" s="7">
-        <f>SUM(M93:M101)/10</f>
-        <v>8.8940000000000001</v>
-      </c>
-      <c r="L101" s="5">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="M101" s="7">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="N101" s="8"/>
-    </row>
-    <row r="102" spans="1:14" s="1" customFormat="1">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102" s="2"/>
-      <c r="J102"/>
-      <c r="K102" s="5">
-        <f>SUM(L93:L102)</f>
-        <v>9.2600000000000016</v>
-      </c>
-      <c r="L102" s="5"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="8"/>
-    </row>
-    <row r="103" spans="1:14" s="1" customFormat="1">
-      <c r="A103" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103" s="2"/>
-      <c r="J103"/>
-      <c r="L103" t="s">
-        <v>141</v>
-      </c>
-      <c r="M103"/>
-      <c r="N103"/>
-    </row>
-    <row r="104" spans="1:14" s="1" customFormat="1">
-      <c r="A104">
-        <v>2</v>
-      </c>
-      <c r="B104" t="s">
-        <v>170</v>
-      </c>
-      <c r="C104" t="s">
-        <v>189</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J104"/>
-      <c r="L104" s="5">
-        <f t="shared" ref="L104:L130" si="8">A104*G104</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="7">
-        <f t="shared" ref="M104:M130" si="9">A104*H104</f>
-        <v>0</v>
-      </c>
-      <c r="N104" s="8"/>
-    </row>
-    <row r="105" spans="1:14" s="1" customFormat="1">
-      <c r="A105">
-        <v>2</v>
-      </c>
-      <c r="B105" t="s">
-        <v>169</v>
-      </c>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G105" s="1">
-        <v>1</v>
-      </c>
-      <c r="H105" s="1">
-        <v>10</v>
-      </c>
-      <c r="J105"/>
-      <c r="L105" s="5">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="M105" s="7">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="N105" s="8"/>
-    </row>
-    <row r="106" spans="1:14" s="1" customFormat="1">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106" t="s">
-        <v>187</v>
-      </c>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G106" s="1">
-        <v>1</v>
-      </c>
-      <c r="H106" s="1">
-        <v>10</v>
-      </c>
-      <c r="J106"/>
-      <c r="L106" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="M106" s="7">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
       <c r="N106" s="8"/>
     </row>
-    <row r="107" spans="1:14" s="1" customFormat="1">
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107" s="2" t="s">
-        <v>190</v>
+        <v>135</v>
+      </c>
+      <c r="C107" t="s">
+        <v>257</v>
       </c>
       <c r="G107" s="1">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H107" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="J107"/>
+        <v>15</v>
+      </c>
       <c r="L107" s="5">
-        <f t="shared" si="8"/>
-        <v>1.25</v>
+        <f t="shared" si="11"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M107" s="7">
-        <f t="shared" si="9"/>
-        <v>12.5</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="N107" s="8"/>
     </row>
     <row r="108" spans="1:14" s="1" customFormat="1">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108" t="s">
-        <v>171</v>
-      </c>
+      <c r="A108"/>
+      <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
-      <c r="F108" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G108" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H108" s="1">
-        <v>15</v>
-      </c>
+      <c r="F108"/>
       <c r="J108"/>
-      <c r="L108" s="5">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="M108" s="7">
-        <f t="shared" si="9"/>
-        <v>15</v>
+      <c r="L108" s="22">
+        <f>SUM(L98:L107)</f>
+        <v>28.71</v>
+      </c>
+      <c r="M108" s="23">
+        <f>SUM(M99:M107)/10</f>
+        <v>26.074999999999999</v>
       </c>
       <c r="N108" s="8"/>
     </row>
     <row r="109" spans="1:14" s="1" customFormat="1">
-      <c r="A109">
-        <v>2</v>
-      </c>
-      <c r="B109" t="s">
-        <v>183</v>
-      </c>
+      <c r="A109" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
-      <c r="F109" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G109" s="1">
-        <v>2</v>
-      </c>
-      <c r="H109" s="1">
-        <v>20</v>
-      </c>
+      <c r="F109"/>
       <c r="J109"/>
-      <c r="L109" s="5">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M109" s="7">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="N109" s="8"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
     </row>
     <row r="110" spans="1:14" s="1" customFormat="1">
       <c r="A110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110"/>
-      <c r="D110"/>
+        <v>142</v>
+      </c>
+      <c r="C110" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" t="s">
+        <v>221</v>
+      </c>
       <c r="E110"/>
-      <c r="F110" s="2"/>
+      <c r="F110" t="s">
+        <v>219</v>
+      </c>
       <c r="G110" s="1">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H110" s="1">
-        <v>65</v>
+        <v>12.4</v>
+      </c>
+      <c r="I110" s="1">
+        <v>98</v>
       </c>
       <c r="J110"/>
       <c r="L110" s="5">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" ref="L110:L118" si="13">A110*G110</f>
+        <v>1.4</v>
       </c>
       <c r="M110" s="7">
-        <f t="shared" si="9"/>
-        <v>260</v>
+        <f>A110*H110</f>
+        <v>12.4</v>
       </c>
       <c r="N110" s="8"/>
     </row>
     <row r="111" spans="1:14" s="1" customFormat="1">
       <c r="A111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111"/>
-      <c r="D111"/>
+        <v>134</v>
+      </c>
+      <c r="C111" t="s">
+        <v>220</v>
+      </c>
+      <c r="D111" t="s">
+        <v>222</v>
+      </c>
       <c r="E111"/>
-      <c r="F111" s="2"/>
+      <c r="F111" t="s">
+        <v>223</v>
+      </c>
       <c r="G111" s="1">
-        <v>5</v>
+        <v>3.22</v>
       </c>
       <c r="H111" s="1">
-        <v>50</v>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I111" s="1">
+        <v>213</v>
       </c>
       <c r="J111"/>
       <c r="L111" s="5">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>3.22</v>
       </c>
       <c r="M111" s="7">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f t="shared" ref="M111:M118" si="14">A111*H111</f>
+        <v>32.200000000000003</v>
       </c>
       <c r="N111" s="8"/>
     </row>
-    <row r="112" spans="1:14" s="1" customFormat="1">
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
-      </c>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>56</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="G112" s="1">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="H112" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="J112"/>
+        <v>0.48</v>
+      </c>
+      <c r="I112" s="1">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="L112" s="5">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f t="shared" si="13"/>
+        <v>0.2</v>
       </c>
       <c r="M112" s="7">
-        <f t="shared" si="9"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>0.96</v>
       </c>
       <c r="N112" s="8"/>
     </row>
     <row r="113" spans="1:14" s="1" customFormat="1">
       <c r="A113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
-      </c>
-      <c r="C113"/>
+        <v>137</v>
+      </c>
+      <c r="C113" t="s">
+        <v>224</v>
+      </c>
       <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113" s="2"/>
+      <c r="E113" t="s">
+        <v>60</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0.63</v>
+      </c>
       <c r="J113"/>
       <c r="L113" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>0.1</v>
       </c>
       <c r="M113" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N113" s="8"/>
     </row>
@@ -4738,114 +4750,109 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
-      </c>
-      <c r="C114"/>
+        <v>138</v>
+      </c>
+      <c r="C114" t="s">
+        <v>139</v>
+      </c>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114" s="2"/>
-      <c r="G114" s="1">
-        <v>10</v>
-      </c>
-      <c r="H114" s="1">
-        <v>150</v>
-      </c>
       <c r="J114"/>
       <c r="L114" s="5">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="M114" s="7">
-        <f t="shared" si="9"/>
-        <v>150</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="1:14" s="1" customFormat="1">
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
-      </c>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="C115" t="s">
+        <v>131</v>
+      </c>
+      <c r="F115" t="s">
+        <v>130</v>
+      </c>
       <c r="G115" s="1">
-        <v>10</v>
+        <v>0.19</v>
       </c>
       <c r="H115" s="1">
-        <v>100</v>
-      </c>
-      <c r="J115"/>
+        <v>1.74</v>
+      </c>
+      <c r="I115" s="1">
+        <v>10.73</v>
+      </c>
       <c r="L115" s="5">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>0.19</v>
       </c>
       <c r="M115" s="7">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>1.74</v>
       </c>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="1:14" s="1" customFormat="1">
+    <row r="116" spans="1:14">
       <c r="A116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
-      </c>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="F116" t="s">
+        <v>158</v>
+      </c>
       <c r="G116" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I116" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="L116" s="5">
+        <f t="shared" si="13"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="M116" s="7">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="N116" s="8"/>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>226</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H117" s="1">
         <v>5</v>
       </c>
-      <c r="H116" s="1">
+      <c r="I117" s="1">
         <v>50</v>
       </c>
-      <c r="J116"/>
-      <c r="L116" s="5">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="M116" s="7">
-        <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="N116" s="8"/>
-    </row>
-    <row r="117" spans="1:14" s="1" customFormat="1">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
-        <v>175</v>
-      </c>
-      <c r="C117" t="s">
-        <v>177</v>
-      </c>
-      <c r="D117"/>
-      <c r="E117" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F117" s="2"/>
-      <c r="G117" s="1">
+      <c r="L117" s="5">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="M117" s="7">
+        <f t="shared" si="14"/>
         <v>15</v>
-      </c>
-      <c r="H117" s="1">
-        <v>100</v>
-      </c>
-      <c r="J117"/>
-      <c r="L117" s="5">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="M117" s="7">
-        <f t="shared" si="9"/>
-        <v>100</v>
       </c>
       <c r="N117" s="8"/>
     </row>
@@ -4854,34 +4861,35 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="D118"/>
-      <c r="E118" s="13" t="s">
-        <v>179</v>
-      </c>
+      <c r="E118"/>
       <c r="F118" s="2"/>
       <c r="G118" s="1">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="H118" s="1">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="I118" s="1">
+        <v>250</v>
       </c>
       <c r="J118"/>
       <c r="K118" s="7">
-        <f>SUM(M104:M118)/10</f>
-        <v>97.25</v>
+        <f>SUM(M110:M118)/10</f>
+        <v>8.8940000000000001</v>
       </c>
       <c r="L118" s="5">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="13"/>
+        <v>2.5</v>
       </c>
       <c r="M118" s="7">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>25</v>
       </c>
       <c r="N118" s="8"/>
     </row>
@@ -4890,372 +4898,629 @@
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
-      <c r="E119" s="13"/>
+      <c r="E119"/>
       <c r="F119" s="2"/>
       <c r="J119"/>
       <c r="K119" s="5">
-        <f>SUM(L104:L119)</f>
-        <v>80.25</v>
+        <f>SUM(L110:L119)</f>
+        <v>9.2600000000000016</v>
       </c>
       <c r="L119" s="5"/>
       <c r="M119" s="7"/>
       <c r="N119" s="8"/>
     </row>
-    <row r="120" spans="1:14">
-      <c r="A120" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>141</v>
-      </c>
+    <row r="120" spans="1:14" s="1" customFormat="1">
+      <c r="A120" s="12"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120" s="2"/>
+      <c r="J120"/>
       <c r="L120" t="s">
-        <v>141</v>
-      </c>
-      <c r="M120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="B121" t="s">
-        <v>156</v>
-      </c>
-      <c r="C121" t="s">
-        <v>155</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G121" s="1">
-        <v>10</v>
-      </c>
-      <c r="H121" s="1">
-        <v>100</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M120"/>
+      <c r="N120"/>
+    </row>
+    <row r="121" spans="1:14" s="1" customFormat="1">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121" s="2"/>
+      <c r="J121"/>
       <c r="L121" s="5">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" ref="L121:L147" si="15">A121*G121</f>
+        <v>0</v>
       </c>
       <c r="M121" s="7">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f t="shared" ref="M121:M147" si="16">A121*H121</f>
+        <v>0</v>
       </c>
       <c r="N121" s="8"/>
     </row>
-    <row r="122" spans="1:14">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" t="s">
-        <v>181</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G122" s="1">
-        <v>7</v>
-      </c>
-      <c r="H122" s="1">
-        <v>70</v>
-      </c>
+    <row r="122" spans="1:14" s="1" customFormat="1">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122" s="2"/>
+      <c r="J122"/>
       <c r="L122" s="5">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M122" s="7">
-        <f t="shared" si="9"/>
-        <v>70</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N122" s="8"/>
     </row>
-    <row r="123" spans="1:14">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>158</v>
-      </c>
-      <c r="C123" t="s">
-        <v>159</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G123" s="1">
-        <v>5</v>
-      </c>
-      <c r="H123" s="1">
-        <v>50</v>
-      </c>
+    <row r="123" spans="1:14" s="1" customFormat="1">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123" s="2"/>
+      <c r="J123"/>
       <c r="L123" s="5">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M123" s="7">
-        <f t="shared" si="9"/>
-        <v>50</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N123" s="8"/>
     </row>
-    <row r="124" spans="1:14">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124" t="s">
-        <v>86</v>
-      </c>
-      <c r="C124" t="s">
-        <v>154</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G124" s="1">
-        <v>2.69</v>
-      </c>
-      <c r="H124" s="1">
-        <v>24.64</v>
-      </c>
+    <row r="124" spans="1:14" s="1" customFormat="1">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124" s="2"/>
+      <c r="J124"/>
       <c r="L124" s="5">
-        <f t="shared" si="8"/>
-        <v>2.69</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M124" s="7">
-        <f t="shared" si="9"/>
-        <v>24.64</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N124" s="8"/>
     </row>
-    <row r="125" spans="1:14">
-      <c r="A125">
-        <v>2</v>
-      </c>
-      <c r="B125" t="s">
-        <v>163</v>
-      </c>
-      <c r="F125" t="s">
-        <v>160</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H125" s="1">
-        <v>0.5</v>
-      </c>
+    <row r="125" spans="1:14" s="1" customFormat="1">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125" s="2"/>
+      <c r="J125"/>
       <c r="L125" s="5">
-        <f t="shared" si="8"/>
-        <v>0.1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M125" s="7">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N125" s="8"/>
     </row>
-    <row r="126" spans="1:14">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126" t="s">
-        <v>164</v>
-      </c>
-      <c r="C126" t="s">
-        <v>132</v>
-      </c>
-      <c r="F126" t="s">
-        <v>133</v>
-      </c>
-      <c r="G126" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="H126" s="1">
-        <v>1.74</v>
-      </c>
+    <row r="126" spans="1:14" s="1" customFormat="1">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126" s="2"/>
+      <c r="J126"/>
       <c r="L126" s="5">
-        <f t="shared" si="8"/>
-        <v>0.19</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M126" s="7">
-        <f t="shared" si="9"/>
-        <v>1.74</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N126" s="8"/>
     </row>
-    <row r="127" spans="1:14">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127" t="s">
-        <v>246</v>
-      </c>
-      <c r="F127"/>
-      <c r="G127" s="1">
-        <v>1</v>
-      </c>
-      <c r="H127" s="1">
-        <v>10</v>
-      </c>
+    <row r="127" spans="1:14" s="1" customFormat="1">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127" s="2"/>
+      <c r="J127"/>
       <c r="L127" s="5">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M127" s="7">
-        <f t="shared" si="9"/>
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N127" s="8"/>
     </row>
-    <row r="128" spans="1:14">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128" t="s">
-        <v>221</v>
-      </c>
-      <c r="G128" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="H128" s="1">
-        <v>50</v>
-      </c>
+    <row r="128" spans="1:14" s="1" customFormat="1">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128" s="2"/>
+      <c r="J128"/>
       <c r="L128" s="5">
-        <f>A128*G128</f>
-        <v>8.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M128" s="7">
-        <f>A128*H128</f>
-        <v>50</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N128" s="8"/>
     </row>
     <row r="129" spans="1:14" s="1" customFormat="1">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129" t="s">
-        <v>249</v>
-      </c>
+      <c r="A129"/>
+      <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G129" s="1">
+      <c r="E129"/>
+      <c r="F129" s="2"/>
+      <c r="J129"/>
+      <c r="L129" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M129" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="8"/>
+    </row>
+    <row r="130" spans="1:14" s="1" customFormat="1">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130" s="2"/>
+      <c r="J130"/>
+      <c r="L130" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M130" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N130" s="8"/>
+    </row>
+    <row r="131" spans="1:14" s="1" customFormat="1">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131" s="2"/>
+      <c r="J131"/>
+      <c r="L131" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N131" s="8"/>
+    </row>
+    <row r="132" spans="1:14" s="1" customFormat="1">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132" s="2"/>
+      <c r="J132"/>
+      <c r="L132" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M132" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N132" s="8"/>
+    </row>
+    <row r="133" spans="1:14" s="1" customFormat="1">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133" s="2"/>
+      <c r="J133"/>
+      <c r="L133" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N133" s="8"/>
+    </row>
+    <row r="136" spans="1:14" s="1" customFormat="1">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="2"/>
+      <c r="J136"/>
+      <c r="K136" s="5">
+        <f>SUM(L121:L136)</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="5"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="8"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L137" t="s">
+        <v>139</v>
+      </c>
+      <c r="M137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" t="s">
+        <v>153</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G138" s="1">
+        <v>10</v>
+      </c>
+      <c r="H138" s="1">
+        <v>100</v>
+      </c>
+      <c r="L138" s="5">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="M138" s="7">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="N138" s="8"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" t="s">
+        <v>172</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G139" s="1">
+        <v>7</v>
+      </c>
+      <c r="H139" s="1">
+        <v>70</v>
+      </c>
+      <c r="L139" s="5">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="M139" s="7">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="N139" s="8"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>156</v>
+      </c>
+      <c r="C140" t="s">
+        <v>157</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G140" s="1">
+        <v>5</v>
+      </c>
+      <c r="H140" s="1">
+        <v>50</v>
+      </c>
+      <c r="L140" s="5">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="M140" s="7">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="N140" s="8"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" t="s">
+        <v>152</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G141" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H141" s="1">
+        <v>24.64</v>
+      </c>
+      <c r="L141" s="5">
+        <f t="shared" si="15"/>
+        <v>2.69</v>
+      </c>
+      <c r="M141" s="7">
+        <f t="shared" si="16"/>
+        <v>24.64</v>
+      </c>
+      <c r="N141" s="8"/>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>161</v>
+      </c>
+      <c r="F142" t="s">
+        <v>158</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L142" s="5">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="M142" s="7">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N142" s="8"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" t="s">
+        <v>131</v>
+      </c>
+      <c r="F143" t="s">
+        <v>132</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H143" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="L143" s="5">
+        <f t="shared" si="15"/>
+        <v>0.19</v>
+      </c>
+      <c r="M143" s="7">
+        <f t="shared" si="16"/>
+        <v>1.74</v>
+      </c>
+      <c r="N143" s="8"/>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>227</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144" s="1">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1">
+        <v>10</v>
+      </c>
+      <c r="L144" s="5">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="M144" s="7">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="N144" s="8"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>203</v>
+      </c>
+      <c r="G145" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H145" s="1">
+        <v>50</v>
+      </c>
+      <c r="L145" s="5">
+        <f>A145*G145</f>
+        <v>8.5</v>
+      </c>
+      <c r="M145" s="7">
+        <f>A145*H145</f>
+        <v>50</v>
+      </c>
+      <c r="N145" s="8"/>
+    </row>
+    <row r="146" spans="1:14" s="1" customFormat="1">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>230</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G146" s="1">
         <v>15</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H146" s="1">
         <v>120</v>
       </c>
-      <c r="J129"/>
-      <c r="K129" s="16"/>
-      <c r="L129" s="5">
-        <f>A129*G129</f>
+      <c r="J146"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="5">
+        <f>A146*G146</f>
         <v>15</v>
       </c>
-      <c r="M129" s="7">
-        <f>A129*H129</f>
+      <c r="M146" s="7">
+        <f>A146*H146</f>
         <v>120</v>
       </c>
-      <c r="N129" s="8"/>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130" t="s">
-        <v>250</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G130" s="1">
+      <c r="N146" s="8"/>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>231</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G147" s="1">
         <v>9</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H147" s="1">
         <v>50</v>
       </c>
-      <c r="K130" s="7">
-        <f>SUM(M121:M130)/10</f>
+      <c r="K147" s="7">
+        <f>SUM(M138:M147)/10</f>
         <v>48.738</v>
       </c>
-      <c r="L130" s="5">
-        <f t="shared" si="8"/>
+      <c r="L147" s="5">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="M130" s="7">
-        <f t="shared" si="9"/>
+      <c r="M147" s="7">
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="N130" s="8"/>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="F131"/>
-      <c r="K131" s="5">
-        <f>SUM(L121:L131)</f>
+      <c r="N147" s="8"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="F148"/>
+      <c r="K148" s="5">
+        <f>SUM(L138:L148)</f>
         <v>59.480000000000004</v>
       </c>
-      <c r="L131" s="5"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="8"/>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="A132" t="s">
-        <v>140</v>
-      </c>
-      <c r="K132" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L132" s="17">
-        <f>SUM(L3:L131)</f>
-        <v>277.17999999999995</v>
-      </c>
-      <c r="M132" s="17">
-        <f>SUM(M3:M131)/10</f>
-        <v>261.40999999999997</v>
-      </c>
-      <c r="N132" s="10">
-        <f>SUM(N3:N131)/100</f>
-        <v>0.28600000000000003</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="A133" t="s">
-        <v>265</v>
-      </c>
-      <c r="B133" s="18">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="L133" s="1">
-        <f>L132*0.09</f>
-        <v>24.946199999999994</v>
-      </c>
-      <c r="M133" s="1">
-        <f>M132*0.09</f>
-        <v>23.526899999999998</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
-      <c r="L134" s="9">
-        <f>SUM(L132:L133)</f>
-        <v>302.12619999999993</v>
-      </c>
-      <c r="M134" s="9">
-        <f>SUM(M132:M133)</f>
-        <v>284.93689999999998</v>
+      <c r="L148" s="5"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="8"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="K149" s="9"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="10"/>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="B150" s="18"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="B151" t="s">
+        <v>284</v>
+      </c>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="B152" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="B153" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E118" r:id="rId1"/>
-    <hyperlink ref="E117" r:id="rId2"/>
+    <hyperlink ref="E66" r:id="rId1"/>
+    <hyperlink ref="E82" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup scale="45" fitToHeight="2" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
+++ b/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="BOM_Base" localSheetId="0">'Sheet1 (2)'!$A$2:$G$37</definedName>
-    <definedName name="HP03S_HIH6130" localSheetId="0">'Sheet1 (2)'!$A$98:$G$111</definedName>
+    <definedName name="HP03S_HIH6130" localSheetId="0">'Sheet1 (2)'!$A$98:$G$112</definedName>
     <definedName name="MRF24_Module" localSheetId="0">'Sheet1 (2)'!$A$42:$G$48</definedName>
     <definedName name="VPower_feed" localSheetId="0">'Sheet1 (2)'!$A$53:$G$56</definedName>
     <definedName name="Wind_enc" localSheetId="0">'Sheet1 (2)'!$A$66:$G$78</definedName>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="296">
   <si>
     <t>Qty</t>
   </si>
@@ -816,9 +816,6 @@
     <t>Sensor Hygrometer</t>
   </si>
   <si>
-    <t xml:space="preserve">HIH_6130       </t>
-  </si>
-  <si>
     <t>785-HIH-6131-021-001 -- MOUSER</t>
   </si>
   <si>
@@ -988,6 +985,21 @@
   </si>
   <si>
     <t>MOU: 0.95 @10</t>
+  </si>
+  <si>
+    <t>Not Loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIH_6131,hih7131       </t>
+  </si>
+  <si>
+    <t>newark hih6131 :$13.50</t>
+  </si>
+  <si>
+    <t>digikey hih7131 : $15.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allied hih6131 $13.50 </t>
   </si>
 </sst>
 </file>
@@ -1157,27 +1169,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_enc" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HP03S_HIH6130" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_Tree_connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM_Base" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="VPower_feed" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MRF24_Module" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_enc" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HP03S_HIH6130" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1468,10 +1480,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
+      <selection activeCell="V102" sqref="V102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1490,7 +1502,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="11"/>
     </row>
@@ -1526,7 +1538,7 @@
         <v>119</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1915,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>188</v>
@@ -2041,7 +2053,7 @@
         <v>13.88</v>
       </c>
       <c r="J16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="0"/>
@@ -2096,16 +2108,16 @@
         <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G18" s="1">
         <v>0.1</v>
@@ -2163,19 +2175,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" t="s">
         <v>261</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>262</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>263</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="G20" s="1">
         <v>0.42</v>
@@ -2239,7 +2251,7 @@
         <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F22" t="s">
         <v>147</v>
@@ -2296,6 +2308,9 @@
       <c r="B24" t="s">
         <v>150</v>
       </c>
+      <c r="C24" t="s">
+        <v>291</v>
+      </c>
       <c r="E24" t="s">
         <v>198</v>
       </c>
@@ -2325,6 +2340,9 @@
       <c r="B25" t="s">
         <v>151</v>
       </c>
+      <c r="C25" t="s">
+        <v>291</v>
+      </c>
       <c r="E25" t="s">
         <v>199</v>
       </c>
@@ -2352,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>291</v>
       </c>
       <c r="D26" t="s">
         <v>139</v>
@@ -2364,7 +2382,7 @@
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G26" s="1">
         <v>0.21</v>
@@ -2387,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
         <v>149</v>
@@ -2551,7 +2569,7 @@
         <v>51.8</v>
       </c>
       <c r="J31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="0"/>
@@ -2589,7 +2607,7 @@
         <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="0"/>
@@ -2781,10 +2799,10 @@
         <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G38" s="1">
         <v>12</v>
@@ -2826,7 +2844,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B41" s="11"/>
       <c r="L41"/>
@@ -3084,10 +3102,10 @@
         <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G49" s="1">
         <v>2</v>
@@ -3121,7 +3139,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B52" s="11"/>
       <c r="K52" s="5">
@@ -3260,7 +3278,7 @@
         <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G57" s="1">
         <v>3.5</v>
@@ -3298,7 +3316,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
@@ -3370,7 +3388,7 @@
         <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G63" s="1">
         <v>2.5</v>
@@ -3403,7 +3421,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B65" s="11"/>
       <c r="L65"/>
@@ -3446,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1">
@@ -3467,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G68" s="1">
         <v>2.5</v>
@@ -3490,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G69" s="1">
         <v>5</v>
@@ -3513,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G70" s="1">
         <v>0.2</v>
@@ -3536,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G71" s="1">
         <v>0.75</v>
@@ -3559,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G72" s="1">
         <v>0.75</v>
@@ -3582,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G73" s="1">
         <v>7.5</v>
@@ -3780,19 +3798,19 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79" t="s">
         <v>279</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>280</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>282</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E79" t="s">
-        <v>283</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="G79" s="1">
         <v>6.3</v>
@@ -3801,7 +3819,7 @@
         <v>31.7</v>
       </c>
       <c r="J79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L79" s="5">
         <f t="shared" si="6"/>
@@ -3827,7 +3845,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>139</v>
@@ -3870,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G83" s="1">
         <v>7.5</v>
@@ -3895,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G84" s="1">
         <v>2.5</v>
@@ -3917,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G85" s="1">
         <v>5</v>
@@ -3939,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G86" s="1">
         <v>0.2</v>
@@ -3961,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G87" s="1">
         <v>0.75</v>
@@ -3983,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G88" s="1">
         <v>0.75</v>
@@ -4008,7 +4026,7 @@
         <v>209</v>
       </c>
       <c r="C89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E89" t="s">
         <v>210</v>
@@ -4145,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G93" s="1">
         <v>5</v>
@@ -4177,10 +4195,10 @@
         <v>8</v>
       </c>
       <c r="E94" t="s">
+        <v>265</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="G94" s="1">
         <v>0.1</v>
@@ -4209,7 +4227,7 @@
         <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G95" s="1">
         <v>1.75</v>
@@ -4250,14 +4268,14 @@
       </c>
       <c r="N96" s="8"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:22">
       <c r="A97" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B97" s="11"/>
       <c r="L97"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:22">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -4274,7 +4292,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="8"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:22">
       <c r="A99">
         <v>2</v>
       </c>
@@ -4312,7 +4330,7 @@
       </c>
       <c r="N99" s="8"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:22">
       <c r="A100">
         <v>2</v>
       </c>
@@ -4350,7 +4368,7 @@
       </c>
       <c r="N100" s="8"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:22">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4386,7 +4404,7 @@
       </c>
       <c r="N101" s="8"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:22">
       <c r="A102">
         <v>1</v>
       </c>
@@ -4394,7 +4412,7 @@
         <v>233</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="D102" t="s">
         <v>221</v>
@@ -4403,7 +4421,7 @@
         <v>33</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G102" s="1">
         <v>16.899999999999999</v>
@@ -4421,25 +4439,34 @@
         <v>159.30000000000001</v>
       </c>
       <c r="N102" s="8"/>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="P102" t="s">
+        <v>293</v>
+      </c>
+      <c r="S102" t="s">
+        <v>294</v>
+      </c>
+      <c r="V102" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="B103" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" t="s">
         <v>237</v>
-      </c>
-      <c r="D103" t="s">
-        <v>238</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G103" s="1">
         <v>7.67</v>
@@ -4448,7 +4475,7 @@
         <v>60.52</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L103" s="5">
         <f t="shared" si="11"/>
@@ -4460,7 +4487,7 @@
       </c>
       <c r="N103" s="8"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:22">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4489,7 +4516,7 @@
       </c>
       <c r="N104" s="8"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:22">
       <c r="A105">
         <v>5</v>
       </c>
@@ -4515,7 +4542,7 @@
       </c>
       <c r="N105" s="8"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:22">
       <c r="A106">
         <v>3</v>
       </c>
@@ -4538,7 +4565,7 @@
       </c>
       <c r="N106" s="8"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:22">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4546,7 +4573,7 @@
         <v>135</v>
       </c>
       <c r="C107" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G107" s="1">
         <v>1.1499999999999999</v>
@@ -4564,185 +4591,153 @@
       </c>
       <c r="N107" s="8"/>
     </row>
-    <row r="108" spans="1:14" s="1" customFormat="1">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="J108"/>
-      <c r="L108" s="22">
-        <f>SUM(L98:L107)</f>
-        <v>28.71</v>
-      </c>
-      <c r="M108" s="23">
-        <f>SUM(M99:M107)/10</f>
-        <v>26.074999999999999</v>
-      </c>
+    <row r="108" spans="1:22">
+      <c r="L108" s="5"/>
+      <c r="M108" s="7"/>
       <c r="N108" s="8"/>
     </row>
-    <row r="109" spans="1:14" s="1" customFormat="1">
-      <c r="A109" s="12" t="s">
-        <v>133</v>
-      </c>
+    <row r="109" spans="1:22" s="1" customFormat="1">
+      <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
       <c r="J109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-    </row>
-    <row r="110" spans="1:14" s="1" customFormat="1">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="L109" s="22">
+        <f>SUM(L98:L107)</f>
+        <v>28.71</v>
+      </c>
+      <c r="M109" s="23">
+        <f>SUM(M99:M107)/10</f>
+        <v>26.074999999999999</v>
+      </c>
+      <c r="N109" s="8"/>
+    </row>
+    <row r="110" spans="1:22" s="1" customFormat="1">
+      <c r="A110" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="J110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="1:22" s="1" customFormat="1">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
         <v>142</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>218</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>221</v>
-      </c>
-      <c r="E110"/>
-      <c r="F110" t="s">
-        <v>219</v>
-      </c>
-      <c r="G110" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="H110" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="I110" s="1">
-        <v>98</v>
-      </c>
-      <c r="J110"/>
-      <c r="L110" s="5">
-        <f t="shared" ref="L110:L118" si="13">A110*G110</f>
-        <v>1.4</v>
-      </c>
-      <c r="M110" s="7">
-        <f>A110*H110</f>
-        <v>12.4</v>
-      </c>
-      <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="1:14" s="1" customFormat="1">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111" t="s">
-        <v>134</v>
-      </c>
-      <c r="C111" t="s">
-        <v>220</v>
-      </c>
-      <c r="D111" t="s">
-        <v>222</v>
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G111" s="1">
-        <v>3.22</v>
+        <v>1.4</v>
       </c>
       <c r="H111" s="1">
-        <v>32.200000000000003</v>
+        <v>12.4</v>
       </c>
       <c r="I111" s="1">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="J111"/>
       <c r="L111" s="5">
+        <f t="shared" ref="L111:L119" si="13">A111*G111</f>
+        <v>1.4</v>
+      </c>
+      <c r="M111" s="7">
+        <f>A111*H111</f>
+        <v>12.4</v>
+      </c>
+      <c r="N111" s="8"/>
+    </row>
+    <row r="112" spans="1:22" s="1" customFormat="1">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" t="s">
+        <v>222</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>223</v>
+      </c>
+      <c r="G112" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="H112" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I112" s="1">
+        <v>213</v>
+      </c>
+      <c r="J112"/>
+      <c r="L112" s="5">
         <f t="shared" si="13"/>
         <v>3.22</v>
       </c>
-      <c r="M111" s="7">
-        <f t="shared" ref="M111:M118" si="14">A111*H111</f>
+      <c r="M112" s="7">
+        <f t="shared" ref="M112:M119" si="14">A112*H112</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="N111" s="8"/>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112">
+      <c r="N112" s="8"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113">
         <v>2</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>136</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>6</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>7</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>56</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G113" s="1">
         <v>0.1</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H113" s="1">
         <v>0.48</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I113" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L112" s="5">
+      <c r="L113" s="5">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="M112" s="7">
+      <c r="M113" s="7">
         <f t="shared" si="14"/>
         <v>0.96</v>
       </c>
-      <c r="N112" s="8"/>
-    </row>
-    <row r="113" spans="1:14" s="1" customFormat="1">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113" t="s">
-        <v>137</v>
-      </c>
-      <c r="C113" t="s">
-        <v>224</v>
-      </c>
-      <c r="D113"/>
-      <c r="E113" t="s">
-        <v>60</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I113" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="J113"/>
-      <c r="L113" s="5">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="M113" s="7">
-        <f t="shared" si="14"/>
-        <v>0.14000000000000001</v>
-      </c>
       <c r="N113" s="8"/>
     </row>
     <row r="114" spans="1:14" s="1" customFormat="1">
@@ -4750,83 +4745,91 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C114" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114" s="2"/>
+      <c r="E114" t="s">
+        <v>60</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.63</v>
+      </c>
       <c r="J114"/>
       <c r="L114" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M114" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" s="1" customFormat="1">
       <c r="A115">
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C115" t="s">
-        <v>131</v>
-      </c>
-      <c r="F115" t="s">
-        <v>130</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="H115" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="I115" s="1">
-        <v>10.73</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115" s="2"/>
+      <c r="J115"/>
       <c r="L115" s="5">
         <f t="shared" si="13"/>
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M115" s="7">
         <f t="shared" si="14"/>
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="N115" s="8"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="C116" t="s">
+        <v>131</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="G116" s="1">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="H116" s="1">
-        <v>0.5</v>
+        <v>1.74</v>
       </c>
       <c r="I116" s="1">
-        <v>4.66</v>
+        <v>10.73</v>
       </c>
       <c r="L116" s="5">
         <f t="shared" si="13"/>
-        <v>0.15000000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="M116" s="7">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="N116" s="8"/>
     </row>
@@ -4835,111 +4838,122 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>226</v>
+        <v>161</v>
+      </c>
+      <c r="F117" t="s">
+        <v>158</v>
       </c>
       <c r="G117" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H117" s="1">
         <v>0.5</v>
       </c>
-      <c r="H117" s="1">
-        <v>5</v>
-      </c>
       <c r="I117" s="1">
-        <v>50</v>
+        <v>4.66</v>
       </c>
       <c r="L117" s="5">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M117" s="7">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="N117" s="8"/>
     </row>
-    <row r="118" spans="1:14" s="1" customFormat="1">
+    <row r="118" spans="1:14">
       <c r="A118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
-      </c>
-      <c r="C118" t="s">
-        <v>257</v>
-      </c>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118" s="2"/>
+        <v>226</v>
+      </c>
       <c r="G118" s="1">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H118" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I118" s="1">
-        <v>250</v>
-      </c>
-      <c r="J118"/>
-      <c r="K118" s="7">
-        <f>SUM(M110:M118)/10</f>
-        <v>8.8940000000000001</v>
+        <v>50</v>
       </c>
       <c r="L118" s="5">
         <f t="shared" si="13"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M118" s="7">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N118" s="8"/>
     </row>
     <row r="119" spans="1:14" s="1" customFormat="1">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" t="s">
+        <v>256</v>
+      </c>
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119" s="2"/>
+      <c r="G119" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H119" s="1">
+        <v>25</v>
+      </c>
+      <c r="I119" s="1">
+        <v>250</v>
+      </c>
       <c r="J119"/>
-      <c r="K119" s="5">
-        <f>SUM(L110:L119)</f>
-        <v>9.2600000000000016</v>
-      </c>
-      <c r="L119" s="5"/>
-      <c r="M119" s="7"/>
+      <c r="K119" s="7">
+        <f>SUM(M111:M119)/10</f>
+        <v>8.8940000000000001</v>
+      </c>
+      <c r="L119" s="5">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="M119" s="7">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
       <c r="N119" s="8"/>
     </row>
     <row r="120" spans="1:14" s="1" customFormat="1">
-      <c r="A120" s="12"/>
+      <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
       <c r="F120" s="2"/>
       <c r="J120"/>
-      <c r="L120" t="s">
-        <v>139</v>
-      </c>
-      <c r="M120"/>
-      <c r="N120"/>
+      <c r="K120" s="5">
+        <f>SUM(L111:L120)</f>
+        <v>9.2600000000000016</v>
+      </c>
+      <c r="L120" s="5"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="8"/>
     </row>
     <row r="121" spans="1:14" s="1" customFormat="1">
-      <c r="A121"/>
+      <c r="A121" s="12"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
       <c r="F121" s="2"/>
       <c r="J121"/>
-      <c r="L121" s="5">
-        <f t="shared" ref="L121:L147" si="15">A121*G121</f>
-        <v>0</v>
-      </c>
-      <c r="M121" s="7">
-        <f t="shared" ref="M121:M147" si="16">A121*H121</f>
-        <v>0</v>
-      </c>
-      <c r="N121" s="8"/>
+      <c r="L121" t="s">
+        <v>139</v>
+      </c>
+      <c r="M121"/>
+      <c r="N121"/>
     </row>
     <row r="122" spans="1:14" s="1" customFormat="1">
       <c r="A122"/>
@@ -4950,11 +4964,11 @@
       <c r="F122" s="2"/>
       <c r="J122"/>
       <c r="L122" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L122:L148" si="15">A122*G122</f>
         <v>0</v>
       </c>
       <c r="M122" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="M122:M148" si="16">A122*H122</f>
         <v>0</v>
       </c>
       <c r="N122" s="8"/>
@@ -5157,350 +5171,368 @@
       </c>
       <c r="N133" s="8"/>
     </row>
-    <row r="136" spans="1:14" s="1" customFormat="1">
-      <c r="A136"/>
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="2"/>
-      <c r="J136"/>
-      <c r="K136" s="5">
-        <f>SUM(L121:L136)</f>
+    <row r="134" spans="1:14" s="1" customFormat="1">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134" s="2"/>
+      <c r="J134"/>
+      <c r="L134" s="5">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L136" s="5"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="8"/>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="H137" s="1" t="s">
+      <c r="M134" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N134" s="8"/>
+    </row>
+    <row r="137" spans="1:14" s="1" customFormat="1">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="2"/>
+      <c r="J137"/>
+      <c r="K137" s="5">
+        <f>SUM(L122:L137)</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="5"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="8"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L137" t="s">
+      <c r="L138" t="s">
         <v>139</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M138" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
-      <c r="A138">
-        <v>1</v>
-      </c>
-      <c r="B138" t="s">
+    <row r="139" spans="1:14">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
         <v>154</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>153</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G138" s="1">
+      <c r="G139" s="1">
         <v>10</v>
       </c>
-      <c r="H138" s="1">
+      <c r="H139" s="1">
         <v>100</v>
       </c>
-      <c r="L138" s="5">
+      <c r="L139" s="5">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="M138" s="7">
+      <c r="M139" s="7">
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="N138" s="8"/>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="A139">
-        <v>1</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="N139" s="8"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
         <v>155</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>172</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G140" s="1">
         <v>7</v>
       </c>
-      <c r="H139" s="1">
+      <c r="H140" s="1">
         <v>70</v>
       </c>
-      <c r="L139" s="5">
+      <c r="L140" s="5">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="M139" s="7">
+      <c r="M140" s="7">
         <f t="shared" si="16"/>
         <v>70</v>
       </c>
-      <c r="N139" s="8"/>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="A140">
-        <v>1</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="N140" s="8"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
         <v>156</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>157</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G141" s="1">
         <v>5</v>
       </c>
-      <c r="H140" s="1">
+      <c r="H141" s="1">
         <v>50</v>
       </c>
-      <c r="L140" s="5">
+      <c r="L141" s="5">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="M140" s="7">
+      <c r="M141" s="7">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="N140" s="8"/>
-    </row>
-    <row r="141" spans="1:14">
-      <c r="A141">
-        <v>1</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="N141" s="8"/>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
         <v>86</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>152</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G141" s="1">
+      <c r="G142" s="1">
         <v>2.69</v>
       </c>
-      <c r="H141" s="1">
+      <c r="H142" s="1">
         <v>24.64</v>
       </c>
-      <c r="L141" s="5">
+      <c r="L142" s="5">
         <f t="shared" si="15"/>
         <v>2.69</v>
       </c>
-      <c r="M141" s="7">
+      <c r="M142" s="7">
         <f t="shared" si="16"/>
         <v>24.64</v>
       </c>
-      <c r="N141" s="8"/>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="A142">
+      <c r="N142" s="8"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143">
         <v>2</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>161</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F143" t="s">
         <v>158</v>
       </c>
-      <c r="G142" s="1">
+      <c r="G143" s="1">
         <v>0.05</v>
       </c>
-      <c r="H142" s="1">
+      <c r="H143" s="1">
         <v>0.5</v>
       </c>
-      <c r="L142" s="5">
+      <c r="L143" s="5">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
-      <c r="M142" s="7">
+      <c r="M143" s="7">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="N142" s="8"/>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143">
-        <v>1</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="N143" s="8"/>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
         <v>162</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>131</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F144" t="s">
         <v>132</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G144" s="1">
         <v>0.19</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H144" s="1">
         <v>1.74</v>
       </c>
-      <c r="L143" s="5">
+      <c r="L144" s="5">
         <f t="shared" si="15"/>
         <v>0.19</v>
       </c>
-      <c r="M143" s="7">
+      <c r="M144" s="7">
         <f t="shared" si="16"/>
         <v>1.74</v>
       </c>
-      <c r="N143" s="8"/>
-    </row>
-    <row r="144" spans="1:14">
-      <c r="A144">
+      <c r="N144" s="8"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145">
         <v>2</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>227</v>
       </c>
-      <c r="F144"/>
-      <c r="G144" s="1">
-        <v>1</v>
-      </c>
-      <c r="H144" s="1">
+      <c r="F145"/>
+      <c r="G145" s="1">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1">
         <v>10</v>
       </c>
-      <c r="L144" s="5">
+      <c r="L145" s="5">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="M144" s="7">
+      <c r="M145" s="7">
         <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="N144" s="8"/>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="N145" s="8"/>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
         <v>203</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G146" s="1">
         <v>8.5</v>
       </c>
-      <c r="H145" s="1">
+      <c r="H146" s="1">
         <v>50</v>
       </c>
-      <c r="L145" s="5">
-        <f>A145*G145</f>
-        <v>8.5</v>
-      </c>
-      <c r="M145" s="7">
-        <f>A145*H145</f>
-        <v>50</v>
-      </c>
-      <c r="N145" s="8"/>
-    </row>
-    <row r="146" spans="1:14" s="1" customFormat="1">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146" t="s">
-        <v>230</v>
-      </c>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G146" s="1">
-        <v>15</v>
-      </c>
-      <c r="H146" s="1">
-        <v>120</v>
-      </c>
-      <c r="J146"/>
-      <c r="K146" s="16"/>
       <c r="L146" s="5">
         <f>A146*G146</f>
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="M146" s="7">
         <f>A146*H146</f>
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N146" s="8"/>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" s="1" customFormat="1">
       <c r="A147">
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>231</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147" s="13"/>
       <c r="F147" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G147" s="1">
+        <v>15</v>
+      </c>
+      <c r="H147" s="1">
+        <v>120</v>
+      </c>
+      <c r="J147"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="5">
+        <f>A147*G147</f>
+        <v>15</v>
+      </c>
+      <c r="M147" s="7">
+        <f>A147*H147</f>
+        <v>120</v>
+      </c>
+      <c r="N147" s="8"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>231</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G148" s="1">
         <v>9</v>
       </c>
-      <c r="H147" s="1">
+      <c r="H148" s="1">
         <v>50</v>
       </c>
-      <c r="K147" s="7">
-        <f>SUM(M138:M147)/10</f>
+      <c r="K148" s="7">
+        <f>SUM(M139:M148)/10</f>
         <v>48.738</v>
       </c>
-      <c r="L147" s="5">
+      <c r="L148" s="5">
         <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="M147" s="7">
+      <c r="M148" s="7">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="N147" s="8"/>
-    </row>
-    <row r="148" spans="1:14">
-      <c r="F148"/>
-      <c r="K148" s="5">
-        <f>SUM(L138:L148)</f>
+      <c r="N148" s="8"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="F149"/>
+      <c r="K149" s="5">
+        <f>SUM(L139:L149)</f>
         <v>59.480000000000004</v>
       </c>
-      <c r="L148" s="5"/>
-      <c r="M148" s="7"/>
-      <c r="N148" s="8"/>
-    </row>
-    <row r="149" spans="1:14">
-      <c r="K149" s="9"/>
-      <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="10"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="8"/>
     </row>
     <row r="150" spans="1:14">
-      <c r="B150" s="18"/>
-      <c r="M150" s="1"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="10"/>
     </row>
     <row r="151" spans="1:14">
-      <c r="B151" t="s">
-        <v>284</v>
-      </c>
-      <c r="L151" s="9"/>
-      <c r="M151" s="9"/>
+      <c r="B151" s="18"/>
+      <c r="M151" s="1"/>
     </row>
     <row r="152" spans="1:14">
       <c r="B152" t="s">
-        <v>285</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
     </row>
     <row r="153" spans="1:14">
       <c r="B153" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="B154" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
+++ b/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="327">
   <si>
     <t>Qty</t>
   </si>
@@ -942,9 +942,6 @@
     <t>538-22-23-2031</t>
   </si>
   <si>
-    <t>74-TR3A475K010C1500</t>
-  </si>
-  <si>
     <t>80-C0805C104K5R</t>
   </si>
   <si>
@@ -1087,6 +1084,15 @@
   </si>
   <si>
     <t>Parts Shipping cost + $2</t>
+  </si>
+  <si>
+    <t>80-T491A226K019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  80-T491A475K010</t>
+  </si>
+  <si>
+    <t>538-08-50-0114</t>
   </si>
 </sst>
 </file>
@@ -1258,27 +1264,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HP03S_HIH6130" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_Tree_connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM_Base" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="VPower_feed" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MRF24_Module" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_enc" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HP03S_HIH6130" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_Tree_connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1571,10 +1577,10 @@
   </sheetPr>
   <dimension ref="A1:V164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="885" topLeftCell="A133" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="885" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="O3" sqref="O3"/>
-      <selection pane="bottomLeft" activeCell="K115" sqref="K115"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1639,10 +1645,10 @@
         <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1665,7 +1671,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K3" s="1">
         <v>0.48</v>
@@ -1698,7 +1704,7 @@
         <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K4" s="1">
         <v>10.8</v>
@@ -1731,7 +1737,7 @@
         <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K5" s="1">
         <v>3.1</v>
@@ -1764,7 +1770,7 @@
         <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K6" s="1">
         <v>1.81</v>
@@ -1856,7 +1862,7 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -2198,7 +2204,7 @@
         <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2565,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32" t="s">
         <v>105</v>
@@ -2604,7 +2610,7 @@
         <v>96</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K33" s="1">
         <v>17</v>
@@ -2622,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -2634,7 +2640,7 @@
         <v>104</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K34" s="1">
         <v>2.73</v>
@@ -2661,7 +2667,7 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>103</v>
@@ -2688,7 +2694,7 @@
         <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>102</v>
@@ -2715,7 +2721,7 @@
         <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>101</v>
@@ -2733,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="K38" s="1">
         <v>20</v>
@@ -2889,17 +2895,17 @@
         <v>82</v>
       </c>
       <c r="G45" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="K45" s="1">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="L45" s="1">
         <v>25.5</v>
       </c>
       <c r="N45" s="6">
         <f t="shared" si="0"/>
-        <v>0.28599999999999998</v>
+        <v>0.29500000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2967,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C48" t="s">
         <v>118</v>
@@ -2976,7 +2982,7 @@
         <v>118</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K48" s="1">
         <v>16</v>
@@ -2989,11 +2995,11 @@
     <row r="49" spans="1:15">
       <c r="N49" s="23">
         <f>SUM(N41:N48)</f>
-        <v>23.358000000000001</v>
+        <v>23.367000000000001</v>
       </c>
       <c r="O49" s="1">
         <f>N49*1.09</f>
-        <v>25.460220000000003</v>
+        <v>25.470030000000001</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3113,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="K56" s="1">
         <v>16</v>
@@ -3198,13 +3204,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C61" t="s">
         <v>213</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K61" s="1">
         <v>16</v>
@@ -3368,7 +3374,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3397,7 +3403,7 @@
         <v>265</v>
       </c>
       <c r="J73" s="19">
-        <v>3.17</v>
+        <v>2.89</v>
       </c>
       <c r="K73" s="1">
         <v>48.6</v>
@@ -3454,7 +3460,7 @@
         <v>118</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K75" s="1">
         <v>10.8</v>
@@ -3472,7 +3478,7 @@
         <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -3499,7 +3505,7 @@
         <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3523,10 +3529,10 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
+        <v>314</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="K78" s="1">
         <v>5</v>
@@ -3571,17 +3577,17 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K80" s="1">
-        <v>16</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="N80" s="6">
         <f t="shared" si="2"/>
-        <v>1.6</v>
+        <v>1.6600000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="14.25" customHeight="1">
@@ -3612,11 +3618,11 @@
       </c>
       <c r="N81" s="23">
         <f>SUM(N73:N80)</f>
-        <v>8.9849999999999994</v>
+        <v>9.0449999999999999</v>
       </c>
       <c r="O81" s="1">
         <f>N81*1.09</f>
-        <v>9.7936499999999995</v>
+        <v>9.8590499999999999</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -3749,7 +3755,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="13.5" customHeight="1">
@@ -3929,17 +3935,17 @@
         <v>115</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K99" s="1">
-        <v>16</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L99" s="1">
         <v>6.3E-2</v>
       </c>
       <c r="N99" s="6">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>1.6600000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -3966,16 +3972,16 @@
       </c>
       <c r="N101" s="23">
         <f>SUM(N93:N100)</f>
-        <v>6.6070000000000002</v>
+        <v>6.6669999999999998</v>
       </c>
       <c r="O101" s="1">
         <f>N101*1.09</f>
-        <v>7.2016300000000006</v>
+        <v>7.2670300000000001</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B102" s="8"/>
     </row>
@@ -4100,7 +4106,7 @@
         <v>118</v>
       </c>
       <c r="G107" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K107" s="1">
         <v>149.1</v>
@@ -4154,10 +4160,10 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="F109" t="s">
         <v>118</v>
@@ -4184,14 +4190,14 @@
         <v>115</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K110" s="1">
-        <v>16</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="N110" s="6">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>1.6600000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:22" s="1" customFormat="1">
@@ -4207,16 +4213,16 @@
       <c r="M111"/>
       <c r="N111" s="23">
         <f>SUM(N104:N110)</f>
-        <v>24.157000000000004</v>
+        <v>24.217000000000002</v>
       </c>
       <c r="O111" s="1">
         <f>N111*1.09</f>
-        <v>26.331130000000005</v>
+        <v>26.396530000000006</v>
       </c>
     </row>
     <row r="112" spans="1:22" s="1" customFormat="1">
       <c r="A112" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112"/>
@@ -4339,7 +4345,9 @@
       <c r="F116" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G116" s="2"/>
+      <c r="G116" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="19"/>
@@ -4391,16 +4399,16 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" t="s">
         <v>285</v>
-      </c>
-      <c r="C118" t="s">
-        <v>286</v>
       </c>
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
@@ -4421,10 +4429,10 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
+        <v>292</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="F119" t="s">
         <v>118</v>
@@ -4455,7 +4463,7 @@
       <c r="E120"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -4682,7 +4690,9 @@
       <c r="F128" t="s">
         <v>132</v>
       </c>
-      <c r="G128"/>
+      <c r="G128" t="s">
+        <v>326</v>
+      </c>
       <c r="H128"/>
       <c r="I128"/>
       <c r="K128" s="1">
@@ -4778,7 +4788,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G133" t="s">
         <v>118</v>
@@ -4796,10 +4806,10 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G134" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K134" s="1">
         <v>2.4</v>
@@ -4818,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
@@ -5098,54 +5108,54 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C162" s="1">
         <f>O39+O49+O121+O136</f>
-        <v>60.530970000000003</v>
+        <v>60.540780000000005</v>
       </c>
       <c r="D162" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N162" s="7"/>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B163" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C163" s="1">
         <f>O101</f>
-        <v>7.2016300000000006</v>
+        <v>7.2670300000000001</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
+        <v>319</v>
+      </c>
+      <c r="B164" t="s">
         <v>320</v>
-      </c>
-      <c r="B164" t="s">
-        <v>321</v>
       </c>
       <c r="C164" s="1">
         <f>O81</f>
-        <v>9.7936499999999995</v>
+        <v>9.8590499999999999</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
+++ b/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
@@ -1264,27 +1264,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_enc" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HP03S_HIH6130" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_Tree_connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM_Base" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="VPower_feed" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MRF24_Module" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_enc" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1578,9 +1578,9 @@
   <dimension ref="A1:V164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="885" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="885" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="O3" sqref="O3"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
+++ b/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="332">
   <si>
     <t>Qty</t>
   </si>
@@ -900,9 +900,6 @@
     <t>538-42878-6264</t>
   </si>
   <si>
-    <t>720-SFH9201-2/3-Z</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -1093,6 +1090,24 @@
   </si>
   <si>
     <t>538-08-50-0114</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-470-E3</t>
+  </si>
+  <si>
+    <t>720-SFH9206</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-1.0K-E3</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-330-E3</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-120-E3</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-10K-E3</t>
   </si>
 </sst>
 </file>
@@ -1264,27 +1279,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM_Base" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="VPower_feed" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MRF24_Module" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_enc" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HP03S_HIH6130" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_Tree_connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM_Base" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="VPower_feed" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MRF24_Module" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1578,9 +1593,9 @@
   <dimension ref="A1:V164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="885" topLeftCell="A97" activePane="bottomLeft"/>
+      <pane ySplit="885" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="O3" sqref="O3"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1636,7 +1651,7 @@
         <v>259</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>74</v>
@@ -1645,10 +1660,10 @@
         <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1671,7 +1686,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K3" s="1">
         <v>0.48</v>
@@ -1704,7 +1719,7 @@
         <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K4" s="1">
         <v>10.8</v>
@@ -1737,7 +1752,7 @@
         <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K5" s="1">
         <v>3.1</v>
@@ -1770,7 +1785,7 @@
         <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K6" s="1">
         <v>1.81</v>
@@ -1862,7 +1877,7 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -2135,7 +2150,7 @@
         <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K18" s="1">
         <v>9.5</v>
@@ -2168,7 +2183,7 @@
         <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2204,7 +2219,7 @@
         <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2264,7 +2279,7 @@
         <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K22" s="1">
         <v>4.83</v>
@@ -2297,7 +2312,7 @@
         <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K23" s="1">
         <v>14.3</v>
@@ -2330,7 +2345,7 @@
         <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
@@ -2486,7 +2501,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K29" s="1">
         <v>6.7</v>
@@ -2538,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -2553,7 +2568,7 @@
         <v>138</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K31" s="1">
         <v>37</v>
@@ -2571,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C32" t="s">
         <v>105</v>
@@ -2610,7 +2625,7 @@
         <v>96</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K33" s="1">
         <v>17</v>
@@ -2628,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -2640,7 +2655,7 @@
         <v>104</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K34" s="1">
         <v>2.73</v>
@@ -2667,7 +2682,7 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>103</v>
@@ -2694,7 +2709,7 @@
         <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>102</v>
@@ -2721,7 +2736,7 @@
         <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>101</v>
@@ -2739,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="K38" s="1">
         <v>20</v>
@@ -2895,7 +2910,7 @@
         <v>82</v>
       </c>
       <c r="G45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K45" s="1">
         <v>2.95</v>
@@ -2955,7 +2970,7 @@
         <v>100</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J47" s="19">
         <v>18</v>
@@ -2973,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C48" t="s">
         <v>118</v>
@@ -2982,7 +2997,7 @@
         <v>118</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K48" s="1">
         <v>16</v>
@@ -3074,7 +3089,7 @@
         <v>99</v>
       </c>
       <c r="G54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K54" s="1">
         <v>4.83</v>
@@ -3104,7 +3119,7 @@
         <v>75</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K55" s="1">
         <v>6.67</v>
@@ -3119,10 +3134,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="K56" s="1">
         <v>16</v>
@@ -3204,13 +3219,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C61" t="s">
         <v>213</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K61" s="1">
         <v>16</v>
@@ -3374,7 +3389,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3397,10 +3412,10 @@
         <v>255</v>
       </c>
       <c r="G73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J73" s="19">
         <v>2.89</v>
@@ -3460,7 +3475,7 @@
         <v>118</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K75" s="1">
         <v>10.8</v>
@@ -3478,7 +3493,7 @@
         <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -3505,7 +3520,7 @@
         <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3529,10 +3544,10 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
+        <v>313</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="K78" s="1">
         <v>5</v>
@@ -3577,10 +3592,10 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K80" s="1">
         <v>16.600000000000001</v>
@@ -3755,7 +3770,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="13.5" customHeight="1">
@@ -3775,7 +3790,7 @@
         <v>179</v>
       </c>
       <c r="G93" t="s">
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="H93" s="18"/>
       <c r="K93" s="1">
@@ -3832,6 +3847,9 @@
       <c r="F95" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="G95" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="K95" s="1">
         <v>0.1</v>
       </c>
@@ -3862,6 +3880,9 @@
       <c r="F96" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="G96" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="K96" s="1">
         <v>0.14000000000000001</v>
       </c>
@@ -3889,6 +3910,9 @@
       <c r="E97" t="s">
         <v>26</v>
       </c>
+      <c r="G97" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="K97" s="1">
         <v>0.1</v>
       </c>
@@ -3916,6 +3940,9 @@
       <c r="F98" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="G98" t="s">
+        <v>328</v>
+      </c>
       <c r="K98" s="1">
         <v>0.14000000000000001</v>
       </c>
@@ -3935,7 +3962,7 @@
         <v>115</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K99" s="1">
         <v>16.600000000000001</v>
@@ -3981,7 +4008,7 @@
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B102" s="8"/>
     </row>
@@ -4018,6 +4045,9 @@
       <c r="F104" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="G104" t="s">
+        <v>326</v>
+      </c>
       <c r="K104" s="1">
         <v>0.1</v>
       </c>
@@ -4048,6 +4078,9 @@
       <c r="F105" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="G105" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="K105" s="1">
         <v>0.48</v>
       </c>
@@ -4106,7 +4139,7 @@
         <v>118</v>
       </c>
       <c r="G107" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K107" s="1">
         <v>149.1</v>
@@ -4142,7 +4175,7 @@
         <v>202</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J108" s="19">
         <v>2.5</v>
@@ -4160,10 +4193,10 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
+        <v>291</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="F109" t="s">
         <v>118</v>
@@ -4190,7 +4223,7 @@
         <v>115</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K110" s="1">
         <v>16.600000000000001</v>
@@ -4222,7 +4255,7 @@
     </row>
     <row r="112" spans="1:22" s="1" customFormat="1">
       <c r="A112" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112"/>
@@ -4279,7 +4312,9 @@
       <c r="F114" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G114" s="2"/>
+      <c r="G114" t="s">
+        <v>326</v>
+      </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="19"/>
@@ -4315,6 +4350,9 @@
       <c r="F115" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="G115" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="K115" s="1">
         <v>0.48</v>
       </c>
@@ -4346,7 +4384,7 @@
         <v>86</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -4381,7 +4419,7 @@
         <v>202</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J117" s="19">
         <v>2.5</v>
@@ -4399,16 +4437,16 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" t="s">
         <v>284</v>
-      </c>
-      <c r="C118" t="s">
-        <v>285</v>
       </c>
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
@@ -4429,10 +4467,10 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
+        <v>291</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="F119" t="s">
         <v>118</v>
@@ -4463,7 +4501,7 @@
       <c r="E120"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -4691,7 +4729,7 @@
         <v>132</v>
       </c>
       <c r="G128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H128"/>
       <c r="I128"/>
@@ -4788,7 +4826,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G133" t="s">
         <v>118</v>
@@ -4806,10 +4844,10 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G134" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K134" s="1">
         <v>2.4</v>
@@ -4828,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
@@ -5108,54 +5146,54 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B162" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C162" s="1">
         <f>O39+O49+O121+O136</f>
         <v>60.540780000000005</v>
       </c>
       <c r="D162" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N162" s="7"/>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B163" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C163" s="1">
         <f>O101</f>
         <v>7.2670300000000001</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" t="s">
         <v>319</v>
-      </c>
-      <c r="B164" t="s">
-        <v>320</v>
       </c>
       <c r="C164" s="1">
         <f>O81</f>
         <v>9.8590499999999999</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
+++ b/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="339">
   <si>
     <t>Qty</t>
   </si>
@@ -1108,6 +1108,27 @@
   </si>
   <si>
     <t>71-CRCW0603-10K-E3</t>
+  </si>
+  <si>
+    <t>538-42410-8314</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1002V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1001V</t>
+  </si>
+  <si>
+    <t>77-VJ0603A220JXACBC</t>
+  </si>
+  <si>
+    <t>859-LTST-C190KFKT</t>
+  </si>
+  <si>
+    <t>859-LTST-C190KRKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859-LTST-C190KGKT </t>
   </si>
 </sst>
 </file>
@@ -1279,27 +1300,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_Tree_connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM_Base" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="VPower_feed" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MRF24_Module" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_enc" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HP03S_HIH6130" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_Tree_connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1593,9 +1614,9 @@
   <dimension ref="A1:V164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="885" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="885" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="O3" sqref="O3"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1817,6 +1838,9 @@
       <c r="F7" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="G7" s="10" t="s">
+        <v>335</v>
+      </c>
       <c r="K7" s="1">
         <v>0.3</v>
       </c>
@@ -1912,6 +1936,9 @@
       <c r="F10" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="K10" s="1">
         <v>0.1</v>
       </c>
@@ -1941,6 +1968,9 @@
       </c>
       <c r="F11" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="K11" s="1">
         <v>0.14000000000000001</v>
@@ -2687,6 +2717,9 @@
       <c r="F35" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="K35" s="1">
         <v>0.78</v>
       </c>
@@ -2714,6 +2747,9 @@
       <c r="F36" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="K36" s="1">
         <v>0.74</v>
       </c>
@@ -2740,6 +2776,9 @@
       </c>
       <c r="F37" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="K37" s="1">
         <v>0.78</v>
@@ -3205,6 +3244,9 @@
       </c>
       <c r="F60" s="2" t="s">
         <v>75</v>
+      </c>
+      <c r="G60" t="s">
+        <v>332</v>
       </c>
       <c r="K60" s="1">
         <v>7.47</v>
@@ -5200,9 +5242,10 @@
   <hyperlinks>
     <hyperlink ref="E64" r:id="rId1"/>
     <hyperlink ref="E84" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3" tooltip="Click to view additional information on this product." display="http://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ0603A220JXACW1BC/?qs=sGAEpiMZZMs0AnBnWHyRQMqfda103KBdBdiLJaMBFC0%3d"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="30" fitToHeight="2" orientation="portrait" r:id="rId3"/>
+  <pageSetup scale="30" fitToHeight="2" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
+++ b/Hardware/Wifi_WX_Station/BOMStuff/BOM_STATION_all.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="340">
   <si>
     <t>Qty</t>
   </si>
@@ -294,12 +294,6 @@
     <t>2X5-RA-HEADER</t>
   </si>
   <si>
-    <t>MRF24WB0MA</t>
-  </si>
-  <si>
-    <t>MRF24W</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
@@ -414,9 +408,6 @@
     <t>ED2992CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve"> MRF24WB0MB/RM-ND</t>
-  </si>
-  <si>
     <t>475-2512-1-ND</t>
   </si>
   <si>
@@ -909,9 +900,6 @@
     <t>Future</t>
   </si>
   <si>
-    <t>EZ-Shopfun</t>
-  </si>
-  <si>
     <t>511-LD29150DT33R</t>
   </si>
   <si>
@@ -1129,6 +1117,21 @@
   </si>
   <si>
     <t xml:space="preserve">859-LTST-C190KGKT </t>
+  </si>
+  <si>
+    <t>MRF24WG0MA</t>
+  </si>
+  <si>
+    <t>MRF24WG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MRF24WG0MB/RM-ND</t>
+  </si>
+  <si>
+    <t>e-bay</t>
+  </si>
+  <si>
+    <t>digitalrepair@hotmail.com&lt;digitalrepair@hotmail.com&gt;;</t>
   </si>
 </sst>
 </file>
@@ -1300,27 +1303,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_enc" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HP03S_HIH6130" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_Tree_connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM_Base" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="VPower_feed" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MRF24_Module" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wind_enc" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HP03S_HIH6130" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1616,7 +1619,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="885" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="O3" sqref="O3"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1639,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B1" s="8"/>
     </row>
@@ -1660,31 +1663,31 @@
         <v>3</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1692,7 +1695,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1701,13 +1704,13 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K3" s="1">
         <v>0.48</v>
@@ -1725,22 +1728,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K4" s="1">
         <v>10.8</v>
@@ -1758,22 +1761,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K5" s="1">
         <v>3.1</v>
@@ -1791,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1803,10 +1806,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K6" s="1">
         <v>1.81</v>
@@ -1824,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1836,10 +1839,10 @@
         <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K7" s="1">
         <v>0.3</v>
@@ -1854,19 +1857,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -1888,20 +1891,20 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -1922,22 +1925,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K10" s="1">
         <v>0.1</v>
@@ -1955,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
@@ -1964,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K11" s="1">
         <v>0.14000000000000001</v>
@@ -1988,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1997,10 +2000,10 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" s="1">
         <v>0.1</v>
@@ -2018,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2030,7 +2033,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K13" s="1">
         <v>0.1</v>
@@ -2048,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -2057,10 +2060,10 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K14" s="1">
         <v>0.1</v>
@@ -2078,19 +2081,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K15" s="1">
         <v>0.1</v>
@@ -2108,19 +2111,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K16" s="1">
         <v>0.1</v>
@@ -2135,19 +2138,19 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K17" s="1">
         <v>0.14000000000000001</v>
@@ -2165,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -2177,10 +2180,10 @@
         <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K18" s="1">
         <v>9.5</v>
@@ -2204,16 +2207,16 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2246,10 +2249,10 @@
         <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2267,19 +2270,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" t="s">
         <v>216</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="K21" s="1">
         <v>3</v>
@@ -2306,10 +2309,10 @@
         <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K22" s="1">
         <v>4.83</v>
@@ -2327,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -2339,10 +2342,10 @@
         <v>33</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K23" s="1">
         <v>14.3</v>
@@ -2360,22 +2363,22 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
@@ -2396,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
         <v>167</v>
-      </c>
-      <c r="F25" t="s">
-        <v>170</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -2427,19 +2430,19 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K26" s="1">
         <v>3.05</v>
@@ -2454,19 +2457,19 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -2485,19 +2488,19 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
         <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -2516,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -2528,10 +2531,10 @@
         <v>44</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K29" s="1">
         <v>6.7</v>
@@ -2549,20 +2552,20 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
@@ -2583,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -2595,10 +2598,10 @@
         <v>41</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K31" s="1">
         <v>37</v>
@@ -2616,16 +2619,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K32" s="1">
         <v>51.8</v>
@@ -2640,22 +2643,22 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K33" s="1">
         <v>17</v>
@@ -2673,19 +2676,19 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K34" s="1">
         <v>2.73</v>
@@ -2712,13 +2715,13 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K35" s="1">
         <v>0.78</v>
@@ -2742,13 +2745,13 @@
         <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K36" s="1">
         <v>0.74</v>
@@ -2772,13 +2775,13 @@
         <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K37" s="1">
         <v>0.78</v>
@@ -2793,10 +2796,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K38" s="1">
         <v>20</v>
@@ -2818,7 +2821,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B40" s="8"/>
     </row>
@@ -2844,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2856,7 +2859,7 @@
         <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K42" s="1">
         <v>0.48</v>
@@ -2874,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
@@ -2886,7 +2889,7 @@
         <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K43" s="1">
         <v>0.1</v>
@@ -2904,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
@@ -2916,7 +2919,7 @@
         <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K44" s="1">
         <v>0.1</v>
@@ -2934,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
@@ -2946,10 +2949,10 @@
         <v>25</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K45" s="1">
         <v>2.95</v>
@@ -2967,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
@@ -2979,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K46" s="1">
         <v>3.56</v>
@@ -2994,25 +2997,28 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
+        <v>335</v>
+      </c>
+      <c r="D47" t="s">
+        <v>336</v>
+      </c>
+      <c r="E47" t="s">
         <v>60</v>
       </c>
-      <c r="D47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>100</v>
+        <v>337</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="J47" s="19">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K47" s="1">
         <v>210</v>
@@ -3027,16 +3033,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K48" s="1">
         <v>16</v>
@@ -3058,7 +3064,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B51" s="8"/>
       <c r="N51" s="21"/>
@@ -3085,16 +3091,16 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -3125,10 +3131,10 @@
         <v>37</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G54" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K54" s="1">
         <v>4.83</v>
@@ -3152,13 +3158,13 @@
         <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K55" s="1">
         <v>6.67</v>
@@ -3173,10 +3179,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K56" s="1">
         <v>16</v>
@@ -3198,7 +3204,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -3243,10 +3249,10 @@
         <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K60" s="1">
         <v>7.47</v>
@@ -3261,13 +3267,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K61" s="1">
         <v>16</v>
@@ -3289,7 +3295,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B63" s="8"/>
     </row>
@@ -3298,14 +3304,14 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D64"/>
       <c r="E64" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3326,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F65"/>
       <c r="G65"/>
@@ -3346,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K66" s="1">
         <v>25</v>
@@ -3361,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K67" s="1">
         <v>40</v>
@@ -3376,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K68" s="1">
         <v>10</v>
@@ -3391,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K69" s="24">
         <v>50</v>
@@ -3406,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K70" s="1">
         <v>75</v>
@@ -3431,7 +3437,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="16" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3439,25 +3445,25 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C73" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G73" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J73" s="19">
         <v>2.89</v>
@@ -3475,19 +3481,19 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K74" s="1">
         <v>3.05</v>
@@ -3502,22 +3508,22 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K75" s="1">
         <v>10.8</v>
@@ -3532,19 +3538,19 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K76" s="1">
         <v>0.1</v>
@@ -3559,10 +3565,10 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3571,7 +3577,7 @@
         <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K77" s="1">
         <v>0.1</v>
@@ -3586,10 +3592,10 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K78" s="1">
         <v>5</v>
@@ -3604,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3616,7 +3622,7 @@
         <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K79" s="1">
         <v>0.1</v>
@@ -3634,10 +3640,10 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K80" s="1">
         <v>16.600000000000001</v>
@@ -3649,29 +3655,29 @@
     </row>
     <row r="81" spans="1:15" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N81" s="23">
         <f>SUM(N73:N80)</f>
@@ -3687,7 +3693,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1">
@@ -3695,14 +3701,14 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C84" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D84"/>
       <c r="E84" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -3723,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K85" s="1">
         <v>60</v>
@@ -3741,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K86" s="1">
         <v>25</v>
@@ -3756,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K87" s="1">
         <v>40</v>
@@ -3771,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K88" s="1">
         <v>10</v>
@@ -3786,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K89" s="24">
         <v>50</v>
@@ -3812,7 +3818,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="13.5" customHeight="1">
@@ -3820,19 +3826,19 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G93" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H93" s="18"/>
       <c r="K93" s="1">
@@ -3851,16 +3857,16 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E94" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="K94" s="1">
         <v>2.0699999999999998</v>
@@ -3875,22 +3881,22 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K95" s="1">
         <v>0.1</v>
@@ -3908,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C96" t="s">
         <v>53</v>
@@ -3917,13 +3923,13 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K96" s="1">
         <v>0.14000000000000001</v>
@@ -3941,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C97" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3953,7 +3959,7 @@
         <v>26</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K97" s="1">
         <v>0.1</v>
@@ -3968,22 +3974,22 @@
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G98" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K98" s="1">
         <v>0.14000000000000001</v>
@@ -4001,10 +4007,10 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K99" s="1">
         <v>16.600000000000001</v>
@@ -4022,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K100" s="1">
         <v>40</v>
@@ -4034,10 +4040,10 @@
     </row>
     <row r="101" spans="1:22">
       <c r="K101" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N101" s="23">
         <f>SUM(N93:N100)</f>
@@ -4050,7 +4056,7 @@
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B102" s="8"/>
     </row>
@@ -4073,22 +4079,22 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G104" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K104" s="1">
         <v>0.1</v>
@@ -4106,7 +4112,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -4115,13 +4121,13 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K105" s="1">
         <v>0.48</v>
@@ -4139,19 +4145,19 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D106" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E106" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K106" s="1">
         <v>4.6900000000000004</v>
@@ -4166,22 +4172,22 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E107" t="s">
         <v>33</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G107" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K107" s="1">
         <v>149.1</v>
@@ -4191,10 +4197,10 @@
         <v>14.91</v>
       </c>
       <c r="S107" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V107" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -4202,22 +4208,22 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J108" s="19">
         <v>2.5</v>
@@ -4235,16 +4241,16 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F109" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
@@ -4262,10 +4268,10 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K110" s="1">
         <v>16.600000000000001</v>
@@ -4297,7 +4303,7 @@
     </row>
     <row r="112" spans="1:22" s="1" customFormat="1">
       <c r="A112" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112"/>
@@ -4340,22 +4346,22 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
       </c>
       <c r="E114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G114" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -4378,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -4387,13 +4393,13 @@
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K115" s="1">
         <v>0.48</v>
@@ -4411,22 +4417,22 @@
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D116" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
         <v>25</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -4446,22 +4452,22 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D117" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J117" s="19">
         <v>2.5</v>
@@ -4479,16 +4485,16 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C118" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
@@ -4509,16 +4515,16 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F119" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G119" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
@@ -4536,14 +4542,14 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -4580,7 +4586,7 @@
     </row>
     <row r="122" spans="1:15" s="1" customFormat="1">
       <c r="A122" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B122"/>
       <c r="C122"/>
@@ -4598,17 +4604,17 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C123" t="s">
+        <v>182</v>
+      </c>
+      <c r="D123" t="s">
         <v>185</v>
-      </c>
-      <c r="D123" t="s">
-        <v>188</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G123"/>
       <c r="H123"/>
@@ -4630,17 +4636,17 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C124" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G124"/>
       <c r="H124"/>
@@ -4662,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -4674,7 +4680,7 @@
         <v>52</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -4698,17 +4704,17 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C126" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D126"/>
       <c r="E126" t="s">
         <v>56</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -4731,15 +4737,15 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
@@ -4762,16 +4768,16 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G128" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H128"/>
       <c r="I128"/>
@@ -4793,10 +4799,10 @@
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C129" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D129"/>
       <c r="E129"/>
@@ -4809,7 +4815,7 @@
         <v>10</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M129"/>
       <c r="N129" s="6">
@@ -4868,16 +4874,16 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G133" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O133" s="1"/>
     </row>
@@ -4886,10 +4892,10 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G134" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K134" s="1">
         <v>2.4</v>
@@ -4908,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
@@ -4958,10 +4964,10 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -4969,13 +4975,13 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C149" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K149" s="1">
         <v>100</v>
@@ -4990,13 +4996,13 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C150" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K150" s="1">
         <v>70</v>
@@ -5011,13 +5017,13 @@
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C151" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K151" s="1">
         <v>50</v>
@@ -5032,13 +5038,13 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C152" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K152" s="1">
         <v>24.64</v>
@@ -5053,10 +5059,10 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F153" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G153"/>
       <c r="H153"/>
@@ -5075,13 +5081,13 @@
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C154" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F154" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
@@ -5100,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F155"/>
       <c r="G155"/>
@@ -5120,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K156" s="1">
         <v>50</v>
@@ -5135,11 +5141,11 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K157" s="1">
         <v>120</v>
@@ -5155,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K158" s="1">
         <v>50</v>
@@ -5188,54 +5194,54 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B162" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C162" s="1">
         <f>O39+O49+O121+O136</f>
         <v>60.540780000000005</v>
       </c>
       <c r="D162" t="s">
+        <v>312</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="H162" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N162" s="7"/>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B163" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C163" s="1">
         <f>O101</f>
         <v>7.2670300000000001</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B164" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C164" s="1">
         <f>O81</f>
         <v>9.8590499999999999</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
